--- a/excercises/excercises 2/ex020.pipe.xlsx
+++ b/excercises/excercises 2/ex020.pipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3934BC1-8557-41D7-B089-B08781682527}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B949E0A-77BA-4EF2-B16C-2A5362DB9E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,28 +19,30 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="betta_gas1_" localSheetId="0">'MF 1 '!#REF!</definedName>
-    <definedName name="betta_gas2_" localSheetId="0">'MF 1 '!#REF!</definedName>
-    <definedName name="betta_gas3_" localSheetId="0">'MF 1 '!#REF!</definedName>
     <definedName name="Bob_" localSheetId="0">'MF 1 '!$C$14</definedName>
     <definedName name="fw_" localSheetId="0">'MF 1 '!$C$19</definedName>
     <definedName name="gamma_gas_" localSheetId="0">'MF 1 '!$C$9</definedName>
+    <definedName name="gamma_kill_fluid_">'MF 1 '!$C$16</definedName>
     <definedName name="gamma_oil_" localSheetId="0">'MF 1 '!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">'MF 1 '!$C$8</definedName>
+    <definedName name="hydr_corr_">'MF 1 '!$G$21</definedName>
     <definedName name="id_">'MF 1 '!$C$22</definedName>
     <definedName name="L_">'MF 1 '!$C$21</definedName>
-    <definedName name="l0_">'MF 1 '!$C$35</definedName>
+    <definedName name="l0_">'MF 1 '!$C$37</definedName>
     <definedName name="muob_" localSheetId="0">'MF 1 '!$C$15</definedName>
-    <definedName name="n_">'MF 1 '!$A$60</definedName>
+    <definedName name="n_">'MF 1 '!$A$62</definedName>
     <definedName name="p0_">'MF 1 '!$C$24</definedName>
     <definedName name="p1_">'MF 1 '!$C$25</definedName>
     <definedName name="Pb_" localSheetId="0">'MF 1 '!$C$12</definedName>
-    <definedName name="PVRstr1_">'MF 1 '!$C$29</definedName>
+    <definedName name="Pgas_">'MF 1 '!$C$26</definedName>
+    <definedName name="PVT_str_1_">'MF 1 '!$C$30</definedName>
+    <definedName name="PVT_str_2_">'MF 1 '!$C$32</definedName>
+    <definedName name="PVT_str_gas_">'MF 1 '!$C$31</definedName>
     <definedName name="Q_" localSheetId="0">'MF 1 '!$C$18</definedName>
     <definedName name="Rp_" localSheetId="0">'MF 1 '!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">'MF 1 '!$C$10</definedName>
-    <definedName name="t0_">'MF 1 '!$C$26</definedName>
-    <definedName name="t1_">'MF 1 '!$C$27</definedName>
+    <definedName name="t0_">'MF 1 '!$C$27</definedName>
+    <definedName name="t1_">'MF 1 '!$C$28</definedName>
     <definedName name="theta_">'MF 1 '!$C$23</definedName>
     <definedName name="Tres_" localSheetId="0">'MF 1 '!$C$13</definedName>
   </definedNames>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -84,9 +86,6 @@
   </si>
   <si>
     <t>Параметры потока флюида</t>
-  </si>
-  <si>
-    <t>PVT строка</t>
   </si>
   <si>
     <t>Упражнения по работе с макросами Unifloc VBA</t>
@@ -439,6 +438,27 @@
   </si>
   <si>
     <t>Снизу вверх</t>
+  </si>
+  <si>
+    <t>PVT газ</t>
+  </si>
+  <si>
+    <t>PVT жидк глуш</t>
+  </si>
+  <si>
+    <t>PVT нефть</t>
+  </si>
+  <si>
+    <t>корреляция</t>
+  </si>
+  <si>
+    <t>Расчет распределения давления газа</t>
+  </si>
+  <si>
+    <t>Расчет распределения давления жидкости</t>
+  </si>
+  <si>
+    <t>Pgas</t>
   </si>
 </sst>
 </file>
@@ -622,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -660,6 +680,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,10 +768,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,6 +778,12 @@
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -837,7 +896,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MF 1 '!$E$34</c:f>
+              <c:f>'MF 1 '!$E$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -872,7 +931,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MF 1 '!$C$35:$C$60</c:f>
+              <c:f>'MF 1 '!$C$37:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -880,166 +939,166 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>152</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>176</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>184</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>192</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MF 1 '!$E$35:$E$60</c:f>
+              <c:f>'MF 1 '!$E$37:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.407097263213387</c:v>
+                  <c:v>37.892864987180545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.816624417097245</c:v>
+                  <c:v>45.786421050460135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.228567861701428</c:v>
+                  <c:v>53.68071875348614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.642913861329344</c:v>
+                  <c:v>61.575808707335362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.059648548768756</c:v>
+                  <c:v>69.471741573780236</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.478757929511218</c:v>
+                  <c:v>77.368568068564144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.900227885967382</c:v>
+                  <c:v>85.26633896468644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.324044181665307</c:v>
+                  <c:v>93.165105095697697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.750192465440151</c:v>
+                  <c:v>101.06491735900605</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.178658275610466</c:v>
+                  <c:v>108.96582671919479</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.609427044140247</c:v>
+                  <c:v>116.8678842113524</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.042484100785373</c:v>
+                  <c:v>124.771140944415</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.477814677207952</c:v>
+                  <c:v>132.67564810452245</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.91540391110707</c:v>
+                  <c:v>140.58145695838817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.355236850329703</c:v>
+                  <c:v>148.48861885668396</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.797332947747407</c:v>
+                  <c:v>156.39718523743966</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.242669083585966</c:v>
+                  <c:v>164.3072076294589</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.690958791121503</c:v>
+                  <c:v>172.21873765575148</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.142412205225234</c:v>
+                  <c:v>180.13182703698294</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.596716201327666</c:v>
+                  <c:v>188.04652759494158</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.05384908463796</c:v>
+                  <c:v>195.96289125602479</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.513788942324183</c:v>
+                  <c:v>203.88097005474378</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.977019808464313</c:v>
+                  <c:v>211.80081613724883</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.443906695583145</c:v>
+                  <c:v>219.72248176487449</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.913775559065449</c:v>
+                  <c:v>227.64601931770676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1115,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MF 1 '!$G$34</c:f>
+              <c:f>'MF 1 '!$G$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1091,7 +1150,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MF 1 '!$C$35:$C$60</c:f>
+              <c:f>'MF 1 '!$C$37:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1099,86 +1158,86 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>80</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>104</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>112</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>120</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>136</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>152</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>176</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>184</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>192</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>200</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MF 1 '!$G$35:$G$60</c:f>
+              <c:f>'MF 1 '!$G$37:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1404,7 +1463,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2083,13 +2142,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>380222</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>92387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>245236</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>21047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2575,15 +2634,15 @@
   <sheetPr codeName="Worksheet_MF1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
@@ -2601,10 +2660,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
@@ -2613,7 +2672,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2623,7 +2682,7 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>0.87</v>
@@ -2634,28 +2693,28 @@
         <v>870</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6">
         <f>gamma_wat_*1000</f>
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <v>0.8</v>
@@ -2666,48 +2725,48 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>80</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="7">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>80</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="7">
         <f>Rsb_/gamma_oil_</f>
         <v>91.954022988505741</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>120</v>
@@ -2725,7 +2784,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
@@ -2743,18 +2802,18 @@
     </row>
     <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2">
         <v>1.2</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2765,7 +2824,7 @@
     </row>
     <row r="16" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>1.1000000000000001</v>
@@ -2773,57 +2832,63 @@
       <c r="D16" s="5"/>
       <c r="E16" s="6">
         <f>gamma_wat_*1000</f>
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
-        <v>50</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="C21" s="2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
@@ -2831,23 +2896,23 @@
         <v>62</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
         <v>90</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>30</v>
@@ -2856,9 +2921,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="2">
         <v>40</v>
@@ -2867,1174 +2932,1248 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2">
+        <v>100</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C28" s="2">
+        <v>20</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="19" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,020;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="21"/>
+    </row>
+    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="19" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,020;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:True;</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="21"/>
+    </row>
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="19" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_kill_fluid_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,100;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="21"/>
+    </row>
+    <row r="33" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="H36" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="15" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;fluid:0;</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-    </row>
-    <row r="30" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="13" t="s">
+      <c r="M36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" s="13" t="s">
+      <c r="O36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
+    </row>
+    <row r="37" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
         <v>1</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C37" s="16">
         <v>0</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D37" s="16">
         <f>t0_</f>
-        <v>40</v>
-      </c>
-      <c r="E35" s="17">
+        <v>20</v>
+      </c>
+      <c r="E37" s="16">
         <f>p0_</f>
         <v>30</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F37" s="16">
         <f>t0_</f>
-        <v>40</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="J35" s="17">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="J37" s="15">
+        <f>Pgas_</f>
+        <v>100</v>
+      </c>
+      <c r="K37" s="15">
+        <f>t0_</f>
+        <v>20</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="O37" s="15">
         <f>p0_</f>
         <v>30</v>
       </c>
-      <c r="K35" s="17">
+      <c r="P37" s="15">
         <f>t0_</f>
-        <v>40</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="O35" s="17">
-        <f>p0_</f>
-        <v>30</v>
-      </c>
-      <c r="P35" s="17">
-        <f>t0_</f>
-        <v>40</v>
-      </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <v>2</v>
-      </c>
-      <c r="C36" s="19">
-        <f t="shared" ref="C36:C60" si="0">C35+L_/(n_-1)</f>
-        <v>8</v>
-      </c>
-      <c r="D36" s="19">
-        <f>D35+(t1_-t0_)/(n_-1)</f>
-        <v>39.6</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30.407097263213387</v>
-      </c>
-      <c r="F36" s="4">
-        <v>40</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="J36" s="4">
-        <f t="array" ref="J36:K36">[1]!MF_p_pipe_atma(Q_,fw_,H36-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="K36" s="4">
-        <v>40</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="O36" s="4">
-        <f t="array" ref="O36:P36">[1]!MF_p_pipe_atma(Q_,fw_,M36-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P36" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
-        <v>3</v>
-      </c>
-      <c r="C37" s="19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D37" s="19">
-        <f>D36+(t1_-t0_)/(n_-1)</f>
-        <v>39.200000000000003</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30.816624417097245</v>
-      </c>
-      <c r="F37" s="4">
-        <v>40</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="J37" s="4">
-        <f t="array" ref="J37:K37">[1]!MF_p_pipe_atma(Q_,fw_,H37-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="K37" s="4">
-        <v>40</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="O37" s="4">
-        <f t="array" ref="O37:P37">[1]!MF_p_pipe_atma(Q_,fw_,M37-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P37" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
-        <v>4</v>
-      </c>
-      <c r="C38" s="19">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D38" s="19">
-        <f>D37+(t1_-t0_)/(n_-1)</f>
-        <v>38.800000000000004</v>
+      <c r="A38" s="14">
+        <v>2</v>
+      </c>
+      <c r="C38" s="17">
+        <f t="shared" ref="C38:C62" si="0">C37+L_/(n_-1)</f>
+        <v>80</v>
+      </c>
+      <c r="D38" s="17">
+        <f t="shared" ref="D38:D62" si="1">D37+(t1_-t0_)/(n_-1)</f>
+        <v>20</v>
       </c>
       <c r="E38" s="4">
-        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>31.228567861701428</v>
+        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>37.892864987180545</v>
       </c>
       <c r="F38" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="J38" s="4">
-        <f t="array" ref="J38:K38">[1]!MF_p_pipe_atma(Q_,fw_,H38-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J38:K38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>100.93346544567922</v>
       </c>
       <c r="K38" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="O38" s="4">
-        <f t="array" ref="O38:P38">[1]!MF_p_pipe_atma(Q_,fw_,M38-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O38:P38">[1]!MF_p_pipe_atma(Q_,fw_,M38-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P38" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
-        <v>5</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="A39" s="14">
+        <v>3</v>
+      </c>
+      <c r="C39" s="17">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D39" s="19">
-        <f>D38+(t1_-t0_)/(n_-1)</f>
-        <v>38.400000000000006</v>
+        <v>160</v>
+      </c>
+      <c r="D39" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E39" s="4">
-        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>31.642913861329344</v>
+        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>45.786421050460135</v>
       </c>
       <c r="F39" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="J39" s="4">
-        <f t="array" ref="J39:K39">[1]!MF_p_pipe_atma(Q_,fw_,H39-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J39:K39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>101.87893328227277</v>
       </c>
       <c r="K39" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="O39" s="4">
-        <f t="array" ref="O39:P39">[1]!MF_p_pipe_atma(Q_,fw_,M39-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O39:P39">[1]!MF_p_pipe_atma(Q_,fw_,M39-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P39" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>6</v>
-      </c>
-      <c r="C40" s="19">
+      <c r="A40" s="14">
+        <v>4</v>
+      </c>
+      <c r="C40" s="17">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D40" s="19">
-        <f>D39+(t1_-t0_)/(n_-1)</f>
-        <v>38.000000000000007</v>
+        <v>240</v>
+      </c>
+      <c r="D40" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E40" s="4">
-        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>32.059648548768756</v>
+        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>53.68071875348614</v>
       </c>
       <c r="F40" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="J40" s="4">
-        <f t="array" ref="J40:K40">[1]!MF_p_pipe_atma(Q_,fw_,H40-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J40:K40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>102.83673302448037</v>
       </c>
       <c r="K40" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="O40" s="4">
-        <f t="array" ref="O40:P40">[1]!MF_p_pipe_atma(Q_,fw_,M40-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O40:P40">[1]!MF_p_pipe_atma(Q_,fw_,M40-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P40" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>7</v>
-      </c>
-      <c r="C41" s="19">
+      <c r="A41" s="14">
+        <v>5</v>
+      </c>
+      <c r="C41" s="17">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D41" s="19">
-        <f>D40+(t1_-t0_)/(n_-1)</f>
-        <v>37.600000000000009</v>
+        <v>320</v>
+      </c>
+      <c r="D41" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E41" s="4">
-        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>32.478757929511218</v>
+        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>61.575808707335362</v>
       </c>
       <c r="F41" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="J41" s="4">
-        <f t="array" ref="J41:K41">[1]!MF_p_pipe_atma(Q_,fw_,H41-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J41:K41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>103.80721122512112</v>
       </c>
       <c r="K41" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="O41" s="4">
-        <f t="array" ref="O41:P41">[1]!MF_p_pipe_atma(Q_,fw_,M41-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O41:P41">[1]!MF_p_pipe_atma(Q_,fw_,M41-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P41" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
-        <v>8</v>
-      </c>
-      <c r="C42" s="19">
+      <c r="A42" s="14">
+        <v>6</v>
+      </c>
+      <c r="C42" s="17">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D42" s="19">
-        <f>D41+(t1_-t0_)/(n_-1)</f>
-        <v>37.20000000000001</v>
+        <v>400</v>
+      </c>
+      <c r="D42" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E42" s="4">
-        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>32.900227885967382</v>
+        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>69.471741573780236</v>
       </c>
       <c r="F42" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="J42" s="4">
-        <f t="array" ref="J42:K42">[1]!MF_p_pipe_atma(Q_,fw_,H42-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J42:K42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>104.7907324760408</v>
       </c>
       <c r="K42" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="O42" s="4">
-        <f t="array" ref="O42:P42">[1]!MF_p_pipe_atma(Q_,fw_,M42-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O42:P42">[1]!MF_p_pipe_atma(Q_,fw_,M42-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P42" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
-        <v>9</v>
-      </c>
-      <c r="C43" s="19">
+      <c r="A43" s="14">
+        <v>7</v>
+      </c>
+      <c r="C43" s="17">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D43" s="19">
-        <f>D42+(t1_-t0_)/(n_-1)</f>
-        <v>36.800000000000011</v>
+        <v>480</v>
+      </c>
+      <c r="D43" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E43" s="4">
-        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>33.324044181665307</v>
+        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>77.368568068564144</v>
       </c>
       <c r="F43" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="J43" s="4">
-        <f t="array" ref="J43:K43">[1]!MF_p_pipe_atma(Q_,fw_,H43-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J43:K43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>105.78768045113861</v>
       </c>
       <c r="K43" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="O43" s="4">
-        <f t="array" ref="O43:P43">[1]!MF_p_pipe_atma(Q_,fw_,M43-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O43:P43">[1]!MF_p_pipe_atma(Q_,fw_,M43-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P43" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
-        <v>10</v>
-      </c>
-      <c r="C44" s="19">
+      <c r="A44" s="14">
+        <v>8</v>
+      </c>
+      <c r="C44" s="17">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D44" s="19">
-        <f>D43+(t1_-t0_)/(n_-1)</f>
-        <v>36.400000000000013</v>
+        <v>560</v>
+      </c>
+      <c r="D44" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E44" s="4">
-        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>33.750192465440151</v>
+        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>85.26633896468644</v>
       </c>
       <c r="F44" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="J44" s="4">
-        <f t="array" ref="J44:K44">[1]!MF_p_pipe_atma(Q_,fw_,H44-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J44:K44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>106.79845898819248</v>
       </c>
       <c r="K44" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="O44" s="4">
-        <f t="array" ref="O44:P44">[1]!MF_p_pipe_atma(Q_,fw_,M44-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O44:P44">[1]!MF_p_pipe_atma(Q_,fw_,M44-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P44" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
     <row r="45" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>11</v>
-      </c>
-      <c r="C45" s="19">
+      <c r="A45" s="14">
+        <v>9</v>
+      </c>
+      <c r="C45" s="17">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D45" s="19">
-        <f>D44+(t1_-t0_)/(n_-1)</f>
-        <v>36.000000000000014</v>
+        <v>640</v>
+      </c>
+      <c r="D45" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E45" s="4">
-        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>34.178658275610466</v>
+        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>93.165105095697697</v>
       </c>
       <c r="F45" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="J45" s="4">
-        <f t="array" ref="J45:K45">[1]!MF_p_pipe_atma(Q_,fw_,H45-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J45:K45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>107.82349320446735</v>
       </c>
       <c r="K45" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="O45" s="4">
-        <f t="array" ref="O45:P45">[1]!MF_p_pipe_atma(Q_,fw_,M45-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O45:P45">[1]!MF_p_pipe_atma(Q_,fw_,M45-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P45" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
     <row r="46" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>12</v>
-      </c>
-      <c r="C46" s="19">
+      <c r="A46" s="14">
+        <v>10</v>
+      </c>
+      <c r="C46" s="17">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="D46" s="19">
-        <f>D45+(t1_-t0_)/(n_-1)</f>
-        <v>35.600000000000016</v>
+        <v>720</v>
+      </c>
+      <c r="D46" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E46" s="4">
-        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>34.609427044140247</v>
+        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>101.06491735900605</v>
       </c>
       <c r="F46" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="J46" s="4">
-        <f t="array" ref="J46:K46">[1]!MF_p_pipe_atma(Q_,fw_,H46-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J46:K46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>108.86323063901102</v>
       </c>
       <c r="K46" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="O46" s="4">
-        <f t="array" ref="O46:P46">[1]!MF_p_pipe_atma(Q_,fw_,M46-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O46:P46">[1]!MF_p_pipe_atma(Q_,fw_,M46-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P46" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>13</v>
-      </c>
-      <c r="C47" s="19">
+      <c r="A47" s="14">
+        <v>11</v>
+      </c>
+      <c r="C47" s="17">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="D47" s="19">
-        <f>D46+(t1_-t0_)/(n_-1)</f>
-        <v>35.200000000000017</v>
+        <v>800</v>
+      </c>
+      <c r="D47" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E47" s="4">
-        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>35.042484100785373</v>
+        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>108.96582671919479</v>
       </c>
       <c r="F47" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="J47" s="4">
-        <f t="array" ref="J47:K47">[1]!MF_p_pipe_atma(Q_,fw_,H47-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J47:K47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>109.91814241188474</v>
       </c>
       <c r="K47" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="O47" s="4">
-        <f t="array" ref="O47:P47">[1]!MF_p_pipe_atma(Q_,fw_,M47-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O47:P47">[1]!MF_p_pipe_atma(Q_,fw_,M47-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P47" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
     <row r="48" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>14</v>
-      </c>
-      <c r="C48" s="19">
+      <c r="A48" s="14">
+        <v>12</v>
+      </c>
+      <c r="C48" s="17">
         <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="D48" s="19">
-        <f>D47+(t1_-t0_)/(n_-1)</f>
-        <v>34.800000000000018</v>
+        <v>880</v>
+      </c>
+      <c r="D48" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E48" s="4">
-        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>35.477814677207952</v>
+        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>116.8678842113524</v>
       </c>
       <c r="F48" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="J48" s="4">
-        <f t="array" ref="J48:K48">[1]!MF_p_pipe_atma(Q_,fw_,H48-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J48:K48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>110.98872438730905</v>
       </c>
       <c r="K48" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="O48" s="4">
-        <f t="array" ref="O48:P48">[1]!MF_p_pipe_atma(Q_,fw_,M48-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O48:P48">[1]!MF_p_pipe_atma(Q_,fw_,M48-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P48" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>15</v>
-      </c>
-      <c r="C49" s="19">
+      <c r="A49" s="14">
+        <v>13</v>
+      </c>
+      <c r="C49" s="17">
         <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="D49" s="19">
-        <f>D48+(t1_-t0_)/(n_-1)</f>
-        <v>34.40000000000002</v>
+        <v>960</v>
+      </c>
+      <c r="D49" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E49" s="4">
-        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>35.91540391110707</v>
+        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>124.771140944415</v>
       </c>
       <c r="F49" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="J49" s="4">
-        <f t="array" ref="J49:K49">[1]!MF_p_pipe_atma(Q_,fw_,H49-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J49:K49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>112.07549832367829</v>
       </c>
       <c r="K49" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="O49" s="4">
-        <f t="array" ref="O49:P49">[1]!MF_p_pipe_atma(Q_,fw_,M49-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O49:P49">[1]!MF_p_pipe_atma(Q_,fw_,M49-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P49" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
     <row r="50" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>16</v>
-      </c>
-      <c r="C50" s="19">
+      <c r="A50" s="14">
+        <v>14</v>
+      </c>
+      <c r="C50" s="17">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D50" s="19">
-        <f>D49+(t1_-t0_)/(n_-1)</f>
-        <v>34.000000000000021</v>
+        <v>1040</v>
+      </c>
+      <c r="D50" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E50" s="4">
-        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>36.355236850329703</v>
+        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>132.67564810452245</v>
       </c>
       <c r="F50" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="J50" s="4">
-        <f t="array" ref="J50:K50">[1]!MF_p_pipe_atma(Q_,fw_,H50-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J50:K50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>113.17901298838565</v>
       </c>
       <c r="K50" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="O50" s="4">
-        <f t="array" ref="O50:P50">[1]!MF_p_pipe_atma(Q_,fw_,M50-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O50:P50">[1]!MF_p_pipe_atma(Q_,fw_,M50-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P50" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
     <row r="51" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
-        <v>17</v>
-      </c>
-      <c r="C51" s="19">
+      <c r="A51" s="14">
+        <v>15</v>
+      </c>
+      <c r="C51" s="17">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="D51" s="19">
-        <f>D50+(t1_-t0_)/(n_-1)</f>
-        <v>33.600000000000023</v>
+        <v>1120</v>
+      </c>
+      <c r="D51" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E51" s="4">
-        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>36.797332947747407</v>
+        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>140.58145695838817</v>
       </c>
       <c r="F51" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="J51" s="4">
-        <f t="array" ref="J51:K51">[1]!MF_p_pipe_atma(Q_,fw_,H51-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J51:K51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>114.29984520941788</v>
       </c>
       <c r="K51" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="O51" s="4">
-        <f t="array" ref="O51:P51">[1]!MF_p_pipe_atma(Q_,fw_,M51-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O51:P51">[1]!MF_p_pipe_atma(Q_,fw_,M51-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P51" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
-        <v>18</v>
-      </c>
-      <c r="C52" s="19">
+      <c r="A52" s="14">
+        <v>16</v>
+      </c>
+      <c r="C52" s="17">
         <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
-      <c r="D52" s="19">
-        <f>D51+(t1_-t0_)/(n_-1)</f>
-        <v>33.200000000000024</v>
+        <v>1200</v>
+      </c>
+      <c r="D52" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E52" s="4">
-        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>37.242669083585966</v>
+        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>148.48861885668396</v>
       </c>
       <c r="F52" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="J52" s="4">
-        <f t="array" ref="J52:K52">[1]!MF_p_pipe_atma(Q_,fw_,H52-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J52:K52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>115.43860082828645</v>
       </c>
       <c r="K52" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="O52" s="4">
-        <f t="array" ref="O52:P52">[1]!MF_p_pipe_atma(Q_,fw_,M52-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O52:P52">[1]!MF_p_pipe_atma(Q_,fw_,M52-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P52" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
-        <v>19</v>
-      </c>
-      <c r="C53" s="19">
+      <c r="A53" s="14">
+        <v>17</v>
+      </c>
+      <c r="C53" s="17">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="D53" s="19">
-        <f>D52+(t1_-t0_)/(n_-1)</f>
-        <v>32.800000000000026</v>
+        <v>1280</v>
+      </c>
+      <c r="D53" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E53" s="4">
-        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>37.690958791121503</v>
+        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>156.39718523743966</v>
       </c>
       <c r="F53" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="J53" s="4">
-        <f t="array" ref="J53:K53">[1]!MF_p_pipe_atma(Q_,fw_,H53-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J53:K53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>116.59591551006187</v>
       </c>
       <c r="K53" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="O53" s="4">
-        <f t="array" ref="O53:P53">[1]!MF_p_pipe_atma(Q_,fw_,M53-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O53:P53">[1]!MF_p_pipe_atma(Q_,fw_,M53-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P53" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
-        <v>20</v>
-      </c>
-      <c r="C54" s="19">
+      <c r="A54" s="14">
+        <v>18</v>
+      </c>
+      <c r="C54" s="17">
         <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="D54" s="19">
-        <f>D53+(t1_-t0_)/(n_-1)</f>
-        <v>32.400000000000027</v>
+        <v>1360</v>
+      </c>
+      <c r="D54" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E54" s="4">
-        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>38.142412205225234</v>
+        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>164.3072076294589</v>
       </c>
       <c r="F54" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="J54" s="4">
-        <f t="array" ref="J54:K54">[1]!MF_p_pipe_atma(Q_,fw_,H54-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J54:K54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>117.77245535579982</v>
       </c>
       <c r="K54" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="O54" s="4">
-        <f t="array" ref="O54:P54">[1]!MF_p_pipe_atma(Q_,fw_,M54-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O54:P54">[1]!MF_p_pipe_atma(Q_,fw_,M54-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P54" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
-        <v>21</v>
-      </c>
-      <c r="C55" s="19">
+      <c r="A55" s="14">
+        <v>19</v>
+      </c>
+      <c r="C55" s="17">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="D55" s="19">
-        <f>D54+(t1_-t0_)/(n_-1)</f>
-        <v>32.000000000000028</v>
+        <v>1440</v>
+      </c>
+      <c r="D55" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E55" s="4">
-        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>38.596716201327666</v>
+        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>172.21873765575148</v>
       </c>
       <c r="F55" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="J55" s="4">
-        <f t="array" ref="J55:K55">[1]!MF_p_pipe_atma(Q_,fw_,H55-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J55:K55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>118.96891725011923</v>
       </c>
       <c r="K55" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="O55" s="4">
-        <f t="array" ref="O55:P55">[1]!MF_p_pipe_atma(Q_,fw_,M55-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O55:P55">[1]!MF_p_pipe_atma(Q_,fw_,M55-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P55" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
-        <v>22</v>
-      </c>
-      <c r="C56" s="19">
+      <c r="A56" s="14">
+        <v>20</v>
+      </c>
+      <c r="C56" s="17">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="D56" s="19">
-        <f>D55+(t1_-t0_)/(n_-1)</f>
-        <v>31.60000000000003</v>
+        <v>1520</v>
+      </c>
+      <c r="D56" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E56" s="4">
-        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>39.05384908463796</v>
+        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>180.13182703698294</v>
       </c>
       <c r="F56" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="J56" s="4">
-        <f t="array" ref="J56:K56">[1]!MF_p_pipe_atma(Q_,fw_,H56-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J56:K56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>120.1860288623749</v>
       </c>
       <c r="K56" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="O56" s="4">
-        <f t="array" ref="O56:P56">[1]!MF_p_pipe_atma(Q_,fw_,M56-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O56:P56">[1]!MF_p_pipe_atma(Q_,fw_,M56-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P56" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
-        <v>23</v>
-      </c>
-      <c r="C57" s="19">
+      <c r="A57" s="14">
+        <v>21</v>
+      </c>
+      <c r="C57" s="17">
         <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-      <c r="D57" s="19">
-        <f>D56+(t1_-t0_)/(n_-1)</f>
-        <v>31.200000000000031</v>
+        <v>1600</v>
+      </c>
+      <c r="D57" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E57" s="4">
-        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>39.513788942324183</v>
+        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>188.04652759494158</v>
       </c>
       <c r="F57" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="J57" s="4">
-        <f t="array" ref="J57:K57">[1]!MF_p_pipe_atma(Q_,fw_,H57-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J57:K57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>121.4245482030728</v>
       </c>
       <c r="K57" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="O57" s="4">
-        <f t="array" ref="O57:P57">[1]!MF_p_pipe_atma(Q_,fw_,M57-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O57:P57">[1]!MF_p_pipe_atma(Q_,fw_,M57-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P57" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
-        <v>24</v>
-      </c>
-      <c r="C58" s="19">
+      <c r="A58" s="14">
+        <v>22</v>
+      </c>
+      <c r="C58" s="17">
         <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="D58" s="19">
-        <f>D57+(t1_-t0_)/(n_-1)</f>
-        <v>30.800000000000033</v>
+        <v>1680</v>
+      </c>
+      <c r="D58" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E58" s="4">
-        <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>39.977019808464313</v>
+        <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>195.96289125602479</v>
       </c>
       <c r="F58" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="J58" s="4">
-        <f t="array" ref="J58:K58">[1]!MF_p_pipe_atma(Q_,fw_,H58-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J58:K58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>122.68526261842507</v>
       </c>
       <c r="K58" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="O58" s="4">
-        <f t="array" ref="O58:P58">[1]!MF_p_pipe_atma(Q_,fw_,M58-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O58:P58">[1]!MF_p_pipe_atma(Q_,fw_,M58-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P58" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
-        <v>25</v>
-      </c>
-      <c r="C59" s="19">
+      <c r="A59" s="14">
+        <v>23</v>
+      </c>
+      <c r="C59" s="17">
         <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="D59" s="19">
-        <f>D58+(t1_-t0_)/(n_-1)</f>
-        <v>30.400000000000034</v>
+        <v>1760</v>
+      </c>
+      <c r="D59" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="E59" s="4">
-        <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>40.443906695583145</v>
+        <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>203.88097005474378</v>
       </c>
       <c r="F59" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="J59" s="4">
-        <f t="array" ref="J59:K59">[1]!MF_p_pipe_atma(Q_,fw_,H59-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>30</v>
+        <f t="array" ref="J59:K59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>123.96898708528302</v>
       </c>
       <c r="K59" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="O59" s="4">
-        <f t="array" ref="O59:P59">[1]!MF_p_pipe_atma(Q_,fw_,M59-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
+        <f t="array" ref="O59:P59">[1]!MF_p_pipe_atma(Q_,fw_,M59-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
         <v>30</v>
       </c>
       <c r="P59" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
     </row>
     <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
+      <c r="A60" s="14">
+        <v>24</v>
+      </c>
+      <c r="C60" s="17">
+        <f t="shared" si="0"/>
+        <v>1840</v>
+      </c>
+      <c r="D60" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>211.80081613724883</v>
+      </c>
+      <c r="F60" s="4">
+        <v>20</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="J60" s="4">
+        <f t="array" ref="J60:K60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>125.27656164633549</v>
+      </c>
+      <c r="K60" s="4">
+        <v>20</v>
+      </c>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="O60" s="4">
+        <f t="array" ref="O60:P60">[1]!MF_p_pipe_atma(Q_,fw_,M60-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
+        <v>30</v>
+      </c>
+      <c r="P60" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+    </row>
+    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>25</v>
+      </c>
+      <c r="C61" s="17">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="D61" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="array" ref="E61:F61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>219.72248176487449</v>
+      </c>
+      <c r="F61" s="4">
+        <v>20</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="J61" s="4">
+        <f t="array" ref="J61:K61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>126.60884780324706</v>
+      </c>
+      <c r="K61" s="4">
+        <v>20</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="O61" s="4">
+        <f t="array" ref="O61:P61">[1]!MF_p_pipe_atma(Q_,fw_,M61-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
+        <v>30</v>
+      </c>
+      <c r="P61" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+    </row>
+    <row r="62" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
         <v>26</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C62" s="17">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D60" s="19">
-        <f>D59+(t1_-t0_)/(n_-1)</f>
-        <v>30.000000000000036</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>40.913775559065449</v>
-      </c>
-      <c r="F60" s="4">
-        <v>40</v>
-      </c>
-      <c r="G60" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D62" s="17">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="array" ref="E62:F62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
+        <v>227.64601931770676</v>
+      </c>
+      <c r="F62" s="4">
+        <v>20</v>
+      </c>
+      <c r="G62" s="15">
         <f>p1_</f>
         <v>40</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H62" s="15">
         <f>t1_</f>
-        <v>30</v>
-      </c>
-      <c r="J60" s="4">
-        <f t="array" ref="J60:K60">[1]!MF_p_pipe_atma(Q_,fw_,H60-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>31.539102878044194</v>
-      </c>
-      <c r="K60" s="4">
-        <v>40</v>
-      </c>
-      <c r="L60" s="17">
+        <v>20</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="array" ref="J62:K62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
+        <v>127.96672366374233</v>
+      </c>
+      <c r="K62" s="4">
+        <v>20</v>
+      </c>
+      <c r="L62" s="15">
         <f>p1_</f>
         <v>40</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M62" s="15">
         <f>t1_</f>
-        <v>30</v>
-      </c>
-      <c r="O60" s="4">
-        <f t="array" ref="O60:P60">[1]!MF_p_pipe_atma(Q_,fw_,M60-l0_,$E$35,0,PVRstr1_,theta_,id_,,t0_)</f>
-        <v>31.539102878044194</v>
-      </c>
-      <c r="P60" s="4">
-        <v>40</v>
-      </c>
-      <c r="Q60" s="17">
+        <v>20</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="array" ref="O62:P62">[1]!MF_p_pipe_atma(Q_,fw_,M62-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
+        <v>31.973154221918993</v>
+      </c>
+      <c r="P62" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="15">
         <f>p1_</f>
         <v>40</v>
       </c>
-      <c r="R60" s="17">
+      <c r="R62" s="15">
         <f>t1_</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises 2/ex020.pipe.xlsx
+++ b/excercises/excercises 2/ex020.pipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B949E0A-77BA-4EF2-B16C-2A5362DB9E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0688DEA7-CA77-4A8F-8157-527472EA6CAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -21,29 +21,30 @@
   <definedNames>
     <definedName name="Bob_" localSheetId="0">'MF 1 '!$C$14</definedName>
     <definedName name="fw_" localSheetId="0">'MF 1 '!$C$19</definedName>
+    <definedName name="fw_kf_">'MF 1 '!$C$20</definedName>
     <definedName name="gamma_gas_" localSheetId="0">'MF 1 '!$C$9</definedName>
     <definedName name="gamma_kill_fluid_">'MF 1 '!$C$16</definedName>
     <definedName name="gamma_oil_" localSheetId="0">'MF 1 '!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">'MF 1 '!$C$8</definedName>
-    <definedName name="hydr_corr_">'MF 1 '!$G$21</definedName>
-    <definedName name="id_">'MF 1 '!$C$22</definedName>
-    <definedName name="L_">'MF 1 '!$C$21</definedName>
-    <definedName name="l0_">'MF 1 '!$C$37</definedName>
+    <definedName name="hydr_corr_">'MF 1 '!$G$22</definedName>
+    <definedName name="id_">'MF 1 '!$C$23</definedName>
+    <definedName name="L_">'MF 1 '!$C$22</definedName>
+    <definedName name="l0_">'MF 1 '!$C$38</definedName>
     <definedName name="muob_" localSheetId="0">'MF 1 '!$C$15</definedName>
-    <definedName name="n_">'MF 1 '!$A$62</definedName>
-    <definedName name="p0_">'MF 1 '!$C$24</definedName>
-    <definedName name="p1_">'MF 1 '!$C$25</definedName>
+    <definedName name="n_">'MF 1 '!$A$63</definedName>
+    <definedName name="p0_">'MF 1 '!$C$25</definedName>
+    <definedName name="p1_">'MF 1 '!$C$26</definedName>
     <definedName name="Pb_" localSheetId="0">'MF 1 '!$C$12</definedName>
-    <definedName name="Pgas_">'MF 1 '!$C$26</definedName>
-    <definedName name="PVT_str_1_">'MF 1 '!$C$30</definedName>
-    <definedName name="PVT_str_2_">'MF 1 '!$C$32</definedName>
-    <definedName name="PVT_str_gas_">'MF 1 '!$C$31</definedName>
+    <definedName name="Pgas_">'MF 1 '!$C$27</definedName>
+    <definedName name="PVT_str_1_">'MF 1 '!$C$31</definedName>
+    <definedName name="PVT_str_2_">'MF 1 '!$C$33</definedName>
+    <definedName name="PVT_str_gas_">'MF 1 '!$C$32</definedName>
     <definedName name="Q_" localSheetId="0">'MF 1 '!$C$18</definedName>
     <definedName name="Rp_" localSheetId="0">'MF 1 '!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">'MF 1 '!$C$10</definedName>
-    <definedName name="t0_">'MF 1 '!$C$27</definedName>
-    <definedName name="t1_">'MF 1 '!$C$28</definedName>
-    <definedName name="theta_">'MF 1 '!$C$23</definedName>
+    <definedName name="t0_">'MF 1 '!$C$28</definedName>
+    <definedName name="t1_">'MF 1 '!$C$29</definedName>
+    <definedName name="theta_">'MF 1 '!$C$24</definedName>
     <definedName name="Tres_" localSheetId="0">'MF 1 '!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -459,6 +460,33 @@
   </si>
   <si>
     <t>Pgas</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> kf</t>
+    </r>
+  </si>
+  <si>
+    <t>Настройка корреляции</t>
   </si>
 </sst>
 </file>
@@ -729,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,6 +812,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -896,7 +930,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MF 1 '!$E$36</c:f>
+              <c:f>'MF 1 '!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -915,23 +949,98 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MF 1 '!$C$37:$C$62</c:f>
+              <c:f>'MF 1 '!$E$38:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.927046578646419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.098108707683544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.508068388955998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.153383865802226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.037812484457334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.107197712831677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.430540886292619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.99628428423695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.790223959524226</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84.795771631850357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.995971830529811</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.368100044487278</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>103.78493602136083</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.20127075218839</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116.61704005706324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>123.03185091132798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>129.44537015776072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.85731300620014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>142.26743416307181</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>148.67552090206723</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155.08138758786305</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>161.48487130219763</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>167.8858283167948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>174.28413122361422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>180.67966658101102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$C$38:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1012,93 +1121,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MF 1 '!$E$37:$E$62</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.892864987180545</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.786421050460135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53.68071875348614</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61.575808707335362</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.471741573780236</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>77.368568068564144</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85.26633896468644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93.165105095697697</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>101.06491735900605</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>108.96582671919479</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>116.8678842113524</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>124.771140944415</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>132.67564810452245</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>140.58145695838817</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>148.48861885668396</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>156.39718523743966</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>164.3072076294589</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>172.21873765575148</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>180.13182703698294</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>188.04652759494158</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>195.96289125602479</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>203.88097005474378</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>211.80081613724883</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>219.72248176487449</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>227.64601931770676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,7 +1128,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E126-415A-BD0E-47AF963584B2}"/>
+              <c16:uniqueId val="{00000000-E2BE-4CCE-B5E6-DE46AD791E00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1115,7 +1137,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MF 1 '!$G$36</c:f>
+              <c:f>'MF 1 '!$G$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,23 +1156,98 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'MF 1 '!$C$37:$C$62</c:f>
+              <c:f>'MF 1 '!$G$38:$G$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31.424523299597741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.098155002939848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.008575620841548</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.174779686018091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.558997976964399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.189010095569586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.035207809051428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.08666271237616</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.383061452996671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.916815074042134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>78.681973460255449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.656166813572071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90.821155188135535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.170379383719649</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103.57885363446685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>109.98742876038747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116.39561434592221</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122.80299854708029</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129.20923224575577</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135.61401700050908</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>142.01709575305284</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>148.41824556804522</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>154.81727189533103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>161.21400398710725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>167.60829120235323</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$C$38:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1231,18 +1328,6 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'MF 1 '!$G$37:$G$62</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
-                <c:pt idx="25">
-                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1335,604 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCBC-45DC-ADF9-CC8E864881E1}"/>
+              <c16:uniqueId val="{00000001-E2BE-4CCE-B5E6-DE46AD791E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>pgas1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$J$38:$J$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.92486873630195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.84463681204591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.75973069880401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.6705431538376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.57743510559796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.48073755560239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.38075346834252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.27775962662245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108.17200843514293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.0637296592308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.95313208936579</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110.84040512518528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.72572027497709</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112.60923256887936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.49108188540825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114.37139419228215</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.2502827034893</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116.1278489551844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117.00418380367898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117.87936834902844</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>118.75347478802409</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119.62656720053643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120.49870227314587</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121.36992996407533</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>122.24029411328245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$C$38:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2BE-4CCE-B5E6-DE46AD791E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>pgas2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$L$38:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>100.00000000029803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.92486873659135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.84463681232342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.75973069905999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.67054315407314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.57743510581116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.48073755580373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.38075346852372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.27775962678545</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108.17200843528977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.06372965936002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109.95313208948566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110.84040512528938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>111.72572027506814</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112.60923256895943</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113.49108188547574</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114.37139419234289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>115.25028270353826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116.12784895522478</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>117.00418380371272</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117.87936834905359</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>118.75347478804454</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119.62656720054817</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120.49870227315228</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121.36992996407831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>122.24029411328245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$C$38:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E2BE-4CCE-B5E6-DE46AD791E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>p_kf_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$O$38:$O$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.539722891820254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.075021685606217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.605912038046554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.132409016600874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.654527232801058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.17228095523889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.685684205988665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.19475084341441</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111.69949463371982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120.19992931312417</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.69606864219116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>137.18792645355296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145.67551669404423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154.15885346208765</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162.63795104102221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>171.11282392895555</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179.58348686562388</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>188.0499548566672</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>196.51224319566595</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>204.97036748423122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>213.42434365039793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>221.87418796553592</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230.31991705996137</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>238.76154793740841</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>247.19909798849659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MF 1 '!$C$38:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E2BE-4CCE-B5E6-DE46AD791E00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,9 +1951,10 @@
         <c:axId val="217505088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1390,7 +2073,7 @@
       <c:valAx>
         <c:axId val="251715584"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2140,44 +2823,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>380222</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>92387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>245236</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>21047</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>410804</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -2186,7 +2831,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>143115</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2309,6 +2954,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>234257</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>99216</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>52779</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB5233F-BED6-4952-B42A-01C268EE4C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2634,31 +3317,31 @@
   <sheetPr codeName="Worksheet_MF1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="29" max="33" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" customWidth="1"/>
+    <col min="12" max="13" width="10.1796875" customWidth="1"/>
+    <col min="23" max="26" width="9.1796875" customWidth="1"/>
+    <col min="27" max="27" width="5.81640625" customWidth="1"/>
+    <col min="28" max="28" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="29" max="33" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2670,17 +3353,17 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2696,7 +3379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2712,7 +3395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2728,7 +3411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
@@ -2746,7 +3429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
@@ -2764,7 +3447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
@@ -2782,7 +3465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
@@ -2800,7 +3483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="17.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
@@ -2811,7 +3494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -2822,7 +3505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
@@ -2838,125 +3521,125 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:22" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="B20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>2000</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G21">
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>62</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+    <row r="24" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>90</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+    <row r="25" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="2">
-        <v>30</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="C25" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2">
+        <v>100</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" s="2">
-        <v>20</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="C28" s="2">
         <v>20</v>
@@ -2965,41 +3648,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
+    <row r="29" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>60</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="19" t="str">
+      <c r="C31" s="19" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,020;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="21"/>
-    </row>
-    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="19" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,020;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:True;</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -3021,13 +3687,13 @@
       <c r="U31" s="20"/>
       <c r="V31" s="21"/>
     </row>
-    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="19" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_kill_fluid_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,100;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,1)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,020;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:True;</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -3049,1131 +3715,1539 @@
       <c r="U32" s="20"/>
       <c r="V32" s="21"/>
     </row>
-    <row r="33" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
+    <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="19" t="str">
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_kill_fluid_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,100;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;gas_only:False;</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="21"/>
+    </row>
+    <row r="34" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
         <v>41</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>49</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="36" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
         <v>43</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="13" t="s">
+    <row r="37" spans="1:22" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O37" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P36" s="13" t="s">
+      <c r="P37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="Q37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="13" t="s">
+      <c r="R37" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
+    <row r="38" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>1</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C38" s="16">
         <v>0</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <f>t0_</f>
         <v>20</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E38" s="16">
         <f>p0_</f>
-        <v>30</v>
-      </c>
-      <c r="F37" s="16">
+        <v>35</v>
+      </c>
+      <c r="F38" s="16">
         <f>t0_</f>
         <v>20</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="J37" s="15">
+      <c r="G38" s="22">
+        <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C38,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D38)</f>
+        <v>31.424523299597741</v>
+      </c>
+      <c r="H38" s="22">
+        <v>20</v>
+      </c>
+      <c r="J38" s="15">
         <f>Pgas_</f>
         <v>100</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K38" s="23">
         <f>t0_</f>
         <v>20</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="O37" s="15">
+      <c r="L38" s="4">
+        <f t="array" ref="L38:M38">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C38,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D38)</f>
+        <v>100.00000000029803</v>
+      </c>
+      <c r="M38" s="4">
+        <v>20</v>
+      </c>
+      <c r="O38" s="23">
         <f>p0_</f>
-        <v>30</v>
-      </c>
-      <c r="P37" s="15">
+        <v>35</v>
+      </c>
+      <c r="P38" s="23">
         <f>t0_</f>
         <v>20</v>
       </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14">
+      <c r="Q38" s="22">
+        <f t="array" ref="Q38:R38">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C38,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D38)</f>
+        <v>35.000000000009351</v>
+      </c>
+      <c r="R38" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>2</v>
       </c>
-      <c r="C38" s="17">
-        <f t="shared" ref="C38:C62" si="0">C37+L_/(n_-1)</f>
+      <c r="C39" s="17">
+        <f t="shared" ref="C39:C63" si="0">C38+L_/(n_-1)</f>
         <v>80</v>
       </c>
-      <c r="D38" s="17">
-        <f t="shared" ref="D38:D62" si="1">D37+(t1_-t0_)/(n_-1)</f>
-        <v>20</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>37.892864987180545</v>
-      </c>
-      <c r="F38" s="4">
-        <v>20</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="J38" s="4">
-        <f t="array" ref="J38:K38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>100.93346544567922</v>
-      </c>
-      <c r="K38" s="4">
-        <v>20</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="O38" s="4">
-        <f t="array" ref="O38:P38">[1]!MF_p_pipe_atma(Q_,fw_,M38-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P38" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
+      <c r="D39" s="17">
+        <f t="shared" ref="D39:D63" si="1">D38+(t1_-t0_)/(n_-1)</f>
+        <v>21.6</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D39)</f>
+        <v>38.927046578646419</v>
+      </c>
+      <c r="F39" s="22">
+        <v>21.6</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C39,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D39)</f>
+        <v>35.098155002939848</v>
+      </c>
+      <c r="H39" s="22">
+        <v>21.6</v>
+      </c>
+      <c r="J39" s="22">
+        <f t="array" ref="J39:K39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D39)</f>
+        <v>100.92486873630195</v>
+      </c>
+      <c r="K39" s="22">
+        <v>21.6</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="array" ref="L39:M39">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C39,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D39)</f>
+        <v>100.92486873659135</v>
+      </c>
+      <c r="M39" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="O39" s="22">
+        <f t="array" ref="O39:P39">[1]!MF_p_pipe_atma(Q_,fw_kf_,C39-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D39)</f>
+        <v>43.539722891820254</v>
+      </c>
+      <c r="P39" s="22">
+        <v>21.6</v>
+      </c>
+      <c r="Q39" s="22">
+        <f t="array" ref="Q39:R39">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C39,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D39)</f>
+        <v>43.539722891828724</v>
+      </c>
+      <c r="R39" s="22">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>3</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C40" s="17">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D40" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>45.786421050460135</v>
-      </c>
-      <c r="F39" s="4">
-        <v>20</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="J39" s="4">
-        <f t="array" ref="J39:K39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>101.87893328227277</v>
-      </c>
-      <c r="K39" s="4">
-        <v>20</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="O39" s="4">
-        <f t="array" ref="O39:P39">[1]!MF_p_pipe_atma(Q_,fw_,M39-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P39" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D40)</f>
+        <v>43.098108707683544</v>
+      </c>
+      <c r="F40" s="22">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C40,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D40)</f>
+        <v>39.008575620841548</v>
+      </c>
+      <c r="H40" s="22">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="J40" s="22">
+        <f t="array" ref="J40:K40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D40)</f>
+        <v>101.84463681204591</v>
+      </c>
+      <c r="K40" s="22">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="array" ref="L40:M40">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C40,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D40)</f>
+        <v>101.84463681232342</v>
+      </c>
+      <c r="M40" s="4">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="O40" s="22">
+        <f t="array" ref="O40:P40">[1]!MF_p_pipe_atma(Q_,fw_kf_,C40-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D40)</f>
+        <v>52.075021685606217</v>
+      </c>
+      <c r="P40" s="22">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="Q40" s="22">
+        <f t="array" ref="Q40:R40">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C40,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D40)</f>
+        <v>52.075021685613812</v>
+      </c>
+      <c r="R40" s="22">
+        <v>23.200000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>4</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C41" s="17">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D41" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>53.68071875348614</v>
-      </c>
-      <c r="F40" s="4">
-        <v>20</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="J40" s="4">
-        <f t="array" ref="J40:K40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>102.83673302448037</v>
-      </c>
-      <c r="K40" s="4">
-        <v>20</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="O40" s="4">
-        <f t="array" ref="O40:P40">[1]!MF_p_pipe_atma(Q_,fw_,M40-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P40" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+        <v>24.800000000000004</v>
+      </c>
+      <c r="E41" s="22">
+        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D41)</f>
+        <v>47.508068388955998</v>
+      </c>
+      <c r="F41" s="22">
+        <v>24.800000000000004</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C41,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D41)</f>
+        <v>43.174779686018091</v>
+      </c>
+      <c r="H41" s="22">
+        <v>24.800000000000004</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="array" ref="J41:K41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D41)</f>
+        <v>102.75973069880401</v>
+      </c>
+      <c r="K41" s="22">
+        <v>24.800000000000004</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="array" ref="L41:M41">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C41,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D41)</f>
+        <v>102.75973069905999</v>
+      </c>
+      <c r="M41" s="4">
+        <v>24.800000000000004</v>
+      </c>
+      <c r="O41" s="22">
+        <f t="array" ref="O41:P41">[1]!MF_p_pipe_atma(Q_,fw_kf_,C41-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D41)</f>
+        <v>60.605912038046554</v>
+      </c>
+      <c r="P41" s="22">
+        <v>24.800000000000004</v>
+      </c>
+      <c r="Q41" s="22">
+        <f t="array" ref="Q41:R41">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C41,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D41)</f>
+        <v>60.60591203805258</v>
+      </c>
+      <c r="R41" s="22">
+        <v>24.800000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>5</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C42" s="17">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>61.575808707335362</v>
-      </c>
-      <c r="F41" s="4">
-        <v>20</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="J41" s="4">
-        <f t="array" ref="J41:K41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>103.80721122512112</v>
-      </c>
-      <c r="K41" s="4">
-        <v>20</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="O41" s="4">
-        <f t="array" ref="O41:P41">[1]!MF_p_pipe_atma(Q_,fw_,M41-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P41" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14">
+        <v>26.400000000000006</v>
+      </c>
+      <c r="E42" s="22">
+        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D42)</f>
+        <v>52.153383865802226</v>
+      </c>
+      <c r="F42" s="22">
+        <v>26.400000000000006</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C42,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D42)</f>
+        <v>47.558997976964399</v>
+      </c>
+      <c r="H42" s="22">
+        <v>26.400000000000006</v>
+      </c>
+      <c r="J42" s="22">
+        <f t="array" ref="J42:K42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D42)</f>
+        <v>103.6705431538376</v>
+      </c>
+      <c r="K42" s="22">
+        <v>26.400000000000006</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="array" ref="L42:M42">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C42,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D42)</f>
+        <v>103.67054315407314</v>
+      </c>
+      <c r="M42" s="4">
+        <v>26.400000000000006</v>
+      </c>
+      <c r="O42" s="22">
+        <f t="array" ref="O42:P42">[1]!MF_p_pipe_atma(Q_,fw_kf_,C42-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D42)</f>
+        <v>69.132409016600874</v>
+      </c>
+      <c r="P42" s="22">
+        <v>26.400000000000006</v>
+      </c>
+      <c r="Q42" s="22">
+        <f t="array" ref="Q42:R42">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C42,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D42)</f>
+        <v>69.132409016605962</v>
+      </c>
+      <c r="R42" s="22">
+        <v>26.400000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
         <v>6</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C43" s="17">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>69.471741573780236</v>
-      </c>
-      <c r="F42" s="4">
-        <v>20</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="J42" s="4">
-        <f t="array" ref="J42:K42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>104.7907324760408</v>
-      </c>
-      <c r="K42" s="4">
-        <v>20</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="O42" s="4">
-        <f t="array" ref="O42:P42">[1]!MF_p_pipe_atma(Q_,fw_,M42-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P42" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
+        <v>28.000000000000007</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D43)</f>
+        <v>57.037812484457334</v>
+      </c>
+      <c r="F43" s="22">
+        <v>28.000000000000007</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C43,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D43)</f>
+        <v>52.189010095569586</v>
+      </c>
+      <c r="H43" s="22">
+        <v>28.000000000000007</v>
+      </c>
+      <c r="J43" s="22">
+        <f t="array" ref="J43:K43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D43)</f>
+        <v>104.57743510559796</v>
+      </c>
+      <c r="K43" s="22">
+        <v>28.000000000000007</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="array" ref="L43:M43">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C43,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D43)</f>
+        <v>104.57743510581116</v>
+      </c>
+      <c r="M43" s="4">
+        <v>28.000000000000007</v>
+      </c>
+      <c r="O43" s="22">
+        <f t="array" ref="O43:P43">[1]!MF_p_pipe_atma(Q_,fw_kf_,C43-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D43)</f>
+        <v>77.654527232801058</v>
+      </c>
+      <c r="P43" s="22">
+        <v>28.000000000000007</v>
+      </c>
+      <c r="Q43" s="22">
+        <f t="array" ref="Q43:R43">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C43,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D43)</f>
+        <v>77.654527232805236</v>
+      </c>
+      <c r="R43" s="22">
+        <v>28.000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>7</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C44" s="17">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D44" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>77.368568068564144</v>
-      </c>
-      <c r="F43" s="4">
-        <v>20</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="J43" s="4">
-        <f t="array" ref="J43:K43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>105.78768045113861</v>
-      </c>
-      <c r="K43" s="4">
-        <v>20</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="O43" s="4">
-        <f t="array" ref="O43:P43">[1]!MF_p_pipe_atma(Q_,fw_,M43-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P43" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14">
+        <v>29.600000000000009</v>
+      </c>
+      <c r="E44" s="22">
+        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D44)</f>
+        <v>62.107197712831677</v>
+      </c>
+      <c r="F44" s="22">
+        <v>29.600000000000009</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C44,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D44)</f>
+        <v>57.035207809051428</v>
+      </c>
+      <c r="H44" s="22">
+        <v>29.600000000000009</v>
+      </c>
+      <c r="J44" s="22">
+        <f t="array" ref="J44:K44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D44)</f>
+        <v>105.48073755560239</v>
+      </c>
+      <c r="K44" s="22">
+        <v>29.600000000000009</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="array" ref="L44:M44">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C44,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D44)</f>
+        <v>105.48073755580373</v>
+      </c>
+      <c r="M44" s="4">
+        <v>29.600000000000009</v>
+      </c>
+      <c r="O44" s="22">
+        <f t="array" ref="O44:P44">[1]!MF_p_pipe_atma(Q_,fw_kf_,C44-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D44)</f>
+        <v>86.17228095523889</v>
+      </c>
+      <c r="P44" s="22">
+        <v>29.600000000000009</v>
+      </c>
+      <c r="Q44" s="22">
+        <f t="array" ref="Q44:R44">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C44,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D44)</f>
+        <v>86.172280955242698</v>
+      </c>
+      <c r="R44" s="22">
+        <v>29.600000000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
         <v>8</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C45" s="17">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>85.26633896468644</v>
-      </c>
-      <c r="F44" s="4">
-        <v>20</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="J44" s="4">
-        <f t="array" ref="J44:K44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>106.79845898819248</v>
-      </c>
-      <c r="K44" s="4">
-        <v>20</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="O44" s="4">
-        <f t="array" ref="O44:P44">[1]!MF_p_pipe_atma(Q_,fw_,M44-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P44" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-    </row>
-    <row r="45" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14">
+        <v>31.20000000000001</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D45)</f>
+        <v>67.430540886292619</v>
+      </c>
+      <c r="F45" s="22">
+        <v>31.20000000000001</v>
+      </c>
+      <c r="G45" s="22">
+        <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C45,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D45)</f>
+        <v>62.08666271237616</v>
+      </c>
+      <c r="H45" s="22">
+        <v>31.20000000000001</v>
+      </c>
+      <c r="J45" s="22">
+        <f t="array" ref="J45:K45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D45)</f>
+        <v>106.38075346834252</v>
+      </c>
+      <c r="K45" s="22">
+        <v>31.20000000000001</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="array" ref="L45:M45">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C45,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D45)</f>
+        <v>106.38075346852372</v>
+      </c>
+      <c r="M45" s="4">
+        <v>31.20000000000001</v>
+      </c>
+      <c r="O45" s="22">
+        <f t="array" ref="O45:P45">[1]!MF_p_pipe_atma(Q_,fw_kf_,C45-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D45)</f>
+        <v>94.685684205988665</v>
+      </c>
+      <c r="P45" s="22">
+        <v>31.20000000000001</v>
+      </c>
+      <c r="Q45" s="22">
+        <f t="array" ref="Q45:R45">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C45,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D45)</f>
+        <v>94.685684205991805</v>
+      </c>
+      <c r="R45" s="22">
+        <v>31.20000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
         <v>9</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C46" s="17">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D46" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>93.165105095697697</v>
-      </c>
-      <c r="F45" s="4">
-        <v>20</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="J45" s="4">
-        <f t="array" ref="J45:K45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>107.82349320446735</v>
-      </c>
-      <c r="K45" s="4">
-        <v>20</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="O45" s="4">
-        <f t="array" ref="O45:P45">[1]!MF_p_pipe_atma(Q_,fw_,M45-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P45" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14">
+        <v>32.800000000000011</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D46)</f>
+        <v>72.99628428423695</v>
+      </c>
+      <c r="F46" s="22">
+        <v>32.800000000000011</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C46,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D46)</f>
+        <v>67.383061452996671</v>
+      </c>
+      <c r="H46" s="22">
+        <v>32.800000000000011</v>
+      </c>
+      <c r="J46" s="22">
+        <f t="array" ref="J46:K46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D46)</f>
+        <v>107.27775962662245</v>
+      </c>
+      <c r="K46" s="22">
+        <v>32.800000000000011</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="array" ref="L46:M46">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C46,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D46)</f>
+        <v>107.27775962678545</v>
+      </c>
+      <c r="M46" s="4">
+        <v>32.800000000000011</v>
+      </c>
+      <c r="O46" s="22">
+        <f t="array" ref="O46:P46">[1]!MF_p_pipe_atma(Q_,fw_kf_,C46-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D46)</f>
+        <v>103.19475084341441</v>
+      </c>
+      <c r="P46" s="22">
+        <v>32.800000000000011</v>
+      </c>
+      <c r="Q46" s="22">
+        <f t="array" ref="Q46:R46">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C46,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D46)</f>
+        <v>103.19475084341686</v>
+      </c>
+      <c r="R46" s="22">
+        <v>32.800000000000011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>10</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C47" s="17">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>101.06491735900605</v>
-      </c>
-      <c r="F46" s="4">
-        <v>20</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="J46" s="4">
-        <f t="array" ref="J46:K46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>108.86323063901102</v>
-      </c>
-      <c r="K46" s="4">
-        <v>20</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="O46" s="4">
-        <f t="array" ref="O46:P46">[1]!MF_p_pipe_atma(Q_,fw_,M46-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P46" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-    </row>
-    <row r="47" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D47)</f>
+        <v>78.790223959524226</v>
+      </c>
+      <c r="F47" s="22">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="G47" s="22">
+        <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C47,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D47)</f>
+        <v>72.916815074042134</v>
+      </c>
+      <c r="H47" s="22">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="J47" s="22">
+        <f t="array" ref="J47:K47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D47)</f>
+        <v>108.17200843514293</v>
+      </c>
+      <c r="K47" s="22">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="array" ref="L47:M47">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C47,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D47)</f>
+        <v>108.17200843528977</v>
+      </c>
+      <c r="M47" s="4">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="O47" s="22">
+        <f t="array" ref="O47:P47">[1]!MF_p_pipe_atma(Q_,fw_kf_,C47-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D47)</f>
+        <v>111.69949463371982</v>
+      </c>
+      <c r="P47" s="22">
+        <v>34.400000000000013</v>
+      </c>
+      <c r="Q47" s="22">
+        <f t="array" ref="Q47:R47">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C47,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D47)</f>
+        <v>111.69949463372204</v>
+      </c>
+      <c r="R47" s="22">
+        <v>34.400000000000013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
         <v>11</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C48" s="17">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D48" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>108.96582671919479</v>
-      </c>
-      <c r="F47" s="4">
-        <v>20</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="J47" s="4">
-        <f t="array" ref="J47:K47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>109.91814241188474</v>
-      </c>
-      <c r="K47" s="4">
-        <v>20</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="O47" s="4">
-        <f t="array" ref="O47:P47">[1]!MF_p_pipe_atma(Q_,fw_,M47-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P47" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14">
+        <v>36.000000000000014</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D48)</f>
+        <v>84.795771631850357</v>
+      </c>
+      <c r="F48" s="22">
+        <v>36.000000000000014</v>
+      </c>
+      <c r="G48" s="22">
+        <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C48,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D48)</f>
+        <v>78.681973460255449</v>
+      </c>
+      <c r="H48" s="22">
+        <v>36.000000000000014</v>
+      </c>
+      <c r="J48" s="22">
+        <f t="array" ref="J48:K48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D48)</f>
+        <v>109.0637296592308</v>
+      </c>
+      <c r="K48" s="22">
+        <v>36.000000000000014</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="array" ref="L48:M48">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C48,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D48)</f>
+        <v>109.06372965936002</v>
+      </c>
+      <c r="M48" s="4">
+        <v>36.000000000000014</v>
+      </c>
+      <c r="O48" s="22">
+        <f t="array" ref="O48:P48">[1]!MF_p_pipe_atma(Q_,fw_kf_,C48-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D48)</f>
+        <v>120.19992931312417</v>
+      </c>
+      <c r="P48" s="22">
+        <v>36.000000000000014</v>
+      </c>
+      <c r="Q48" s="22">
+        <f t="array" ref="Q48:R48">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C48,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D48)</f>
+        <v>120.19992931312603</v>
+      </c>
+      <c r="R48" s="22">
+        <v>36.000000000000014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
         <v>12</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C49" s="17">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>116.8678842113524</v>
-      </c>
-      <c r="F48" s="4">
-        <v>20</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="J48" s="4">
-        <f t="array" ref="J48:K48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>110.98872438730905</v>
-      </c>
-      <c r="K48" s="4">
-        <v>20</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="O48" s="4">
-        <f t="array" ref="O48:P48">[1]!MF_p_pipe_atma(Q_,fw_,M48-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P48" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14">
+        <v>37.600000000000016</v>
+      </c>
+      <c r="E49" s="22">
+        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D49)</f>
+        <v>90.995971830529811</v>
+      </c>
+      <c r="F49" s="22">
+        <v>37.600000000000016</v>
+      </c>
+      <c r="G49" s="22">
+        <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C49,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D49)</f>
+        <v>84.656166813572071</v>
+      </c>
+      <c r="H49" s="22">
+        <v>37.600000000000016</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="array" ref="J49:K49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D49)</f>
+        <v>109.95313208936579</v>
+      </c>
+      <c r="K49" s="22">
+        <v>37.600000000000016</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="array" ref="L49:M49">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C49,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D49)</f>
+        <v>109.95313208948566</v>
+      </c>
+      <c r="M49" s="4">
+        <v>37.600000000000016</v>
+      </c>
+      <c r="O49" s="22">
+        <f t="array" ref="O49:P49">[1]!MF_p_pipe_atma(Q_,fw_kf_,C49-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D49)</f>
+        <v>128.69606864219116</v>
+      </c>
+      <c r="P49" s="22">
+        <v>37.600000000000016</v>
+      </c>
+      <c r="Q49" s="22">
+        <f t="array" ref="Q49:R49">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C49,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D49)</f>
+        <v>128.6960686421929</v>
+      </c>
+      <c r="R49" s="22">
+        <v>37.600000000000016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>13</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C50" s="17">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D50" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>124.771140944415</v>
-      </c>
-      <c r="F49" s="4">
-        <v>20</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="J49" s="4">
-        <f t="array" ref="J49:K49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>112.07549832367829</v>
-      </c>
-      <c r="K49" s="4">
-        <v>20</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="O49" s="4">
-        <f t="array" ref="O49:P49">[1]!MF_p_pipe_atma(Q_,fw_,M49-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P49" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14">
+        <v>39.200000000000017</v>
+      </c>
+      <c r="E50" s="22">
+        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D50)</f>
+        <v>97.368100044487278</v>
+      </c>
+      <c r="F50" s="22">
+        <v>39.200000000000017</v>
+      </c>
+      <c r="G50" s="22">
+        <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C50,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D50)</f>
+        <v>90.821155188135535</v>
+      </c>
+      <c r="H50" s="22">
+        <v>39.200000000000017</v>
+      </c>
+      <c r="J50" s="22">
+        <f t="array" ref="J50:K50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D50)</f>
+        <v>110.84040512518528</v>
+      </c>
+      <c r="K50" s="22">
+        <v>39.200000000000017</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="array" ref="L50:M50">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C50,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D50)</f>
+        <v>110.84040512528938</v>
+      </c>
+      <c r="M50" s="4">
+        <v>39.200000000000017</v>
+      </c>
+      <c r="O50" s="22">
+        <f t="array" ref="O50:P50">[1]!MF_p_pipe_atma(Q_,fw_kf_,C50-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D50)</f>
+        <v>137.18792645355296</v>
+      </c>
+      <c r="P50" s="22">
+        <v>39.200000000000017</v>
+      </c>
+      <c r="Q50" s="22">
+        <f t="array" ref="Q50:R50">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C50,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D50)</f>
+        <v>137.18792645355433</v>
+      </c>
+      <c r="R50" s="22">
+        <v>39.200000000000017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>14</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C51" s="17">
         <f t="shared" si="0"/>
         <v>1040</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>132.67564810452245</v>
-      </c>
-      <c r="F50" s="4">
-        <v>20</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="J50" s="4">
-        <f t="array" ref="J50:K50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>113.17901298838565</v>
-      </c>
-      <c r="K50" s="4">
-        <v>20</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="O50" s="4">
-        <f t="array" ref="O50:P50">[1]!MF_p_pipe_atma(Q_,fw_,M50-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P50" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-    </row>
-    <row r="51" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14">
+        <v>40.800000000000018</v>
+      </c>
+      <c r="E51" s="22">
+        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D51)</f>
+        <v>103.78493602136083</v>
+      </c>
+      <c r="F51" s="22">
+        <v>40.800000000000018</v>
+      </c>
+      <c r="G51" s="22">
+        <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C51,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D51)</f>
+        <v>97.170379383719649</v>
+      </c>
+      <c r="H51" s="22">
+        <v>40.800000000000018</v>
+      </c>
+      <c r="J51" s="22">
+        <f t="array" ref="J51:K51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D51)</f>
+        <v>111.72572027497709</v>
+      </c>
+      <c r="K51" s="22">
+        <v>40.800000000000018</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="array" ref="L51:M51">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C51,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D51)</f>
+        <v>111.72572027506814</v>
+      </c>
+      <c r="M51" s="4">
+        <v>40.800000000000018</v>
+      </c>
+      <c r="O51" s="22">
+        <f t="array" ref="O51:P51">[1]!MF_p_pipe_atma(Q_,fw_kf_,C51-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D51)</f>
+        <v>145.67551669404423</v>
+      </c>
+      <c r="P51" s="22">
+        <v>40.800000000000018</v>
+      </c>
+      <c r="Q51" s="22">
+        <f t="array" ref="Q51:R51">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C51,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D51)</f>
+        <v>145.6755166940452</v>
+      </c>
+      <c r="R51" s="22">
+        <v>40.800000000000018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>15</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C52" s="17">
         <f t="shared" si="0"/>
         <v>1120</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D52" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>140.58145695838817</v>
-      </c>
-      <c r="F51" s="4">
-        <v>20</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="J51" s="4">
-        <f t="array" ref="J51:K51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>114.29984520941788</v>
-      </c>
-      <c r="K51" s="4">
-        <v>20</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="O51" s="4">
-        <f t="array" ref="O51:P51">[1]!MF_p_pipe_atma(Q_,fw_,M51-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P51" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14">
+        <v>42.40000000000002</v>
+      </c>
+      <c r="E52" s="22">
+        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D52)</f>
+        <v>110.20127075218839</v>
+      </c>
+      <c r="F52" s="22">
+        <v>42.40000000000002</v>
+      </c>
+      <c r="G52" s="22">
+        <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C52,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D52)</f>
+        <v>103.57885363446685</v>
+      </c>
+      <c r="H52" s="22">
+        <v>42.40000000000002</v>
+      </c>
+      <c r="J52" s="22">
+        <f t="array" ref="J52:K52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D52)</f>
+        <v>112.60923256887936</v>
+      </c>
+      <c r="K52" s="22">
+        <v>42.40000000000002</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="array" ref="L52:M52">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C52,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D52)</f>
+        <v>112.60923256895943</v>
+      </c>
+      <c r="M52" s="4">
+        <v>42.40000000000002</v>
+      </c>
+      <c r="O52" s="22">
+        <f t="array" ref="O52:P52">[1]!MF_p_pipe_atma(Q_,fw_kf_,C52-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D52)</f>
+        <v>154.15885346208765</v>
+      </c>
+      <c r="P52" s="22">
+        <v>42.40000000000002</v>
+      </c>
+      <c r="Q52" s="22">
+        <f t="array" ref="Q52:R52">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C52,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D52)</f>
+        <v>154.15885346208859</v>
+      </c>
+      <c r="R52" s="22">
+        <v>42.40000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>16</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C53" s="17">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D53" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>148.48861885668396</v>
-      </c>
-      <c r="F52" s="4">
-        <v>20</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="J52" s="4">
-        <f t="array" ref="J52:K52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>115.43860082828645</v>
-      </c>
-      <c r="K52" s="4">
-        <v>20</v>
-      </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="O52" s="4">
-        <f t="array" ref="O52:P52">[1]!MF_p_pipe_atma(Q_,fw_,M52-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P52" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14">
+        <v>44.000000000000021</v>
+      </c>
+      <c r="E53" s="22">
+        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D53)</f>
+        <v>116.61704005706324</v>
+      </c>
+      <c r="F53" s="22">
+        <v>44.000000000000021</v>
+      </c>
+      <c r="G53" s="22">
+        <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C53,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D53)</f>
+        <v>109.98742876038747</v>
+      </c>
+      <c r="H53" s="22">
+        <v>44.000000000000021</v>
+      </c>
+      <c r="J53" s="22">
+        <f t="array" ref="J53:K53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D53)</f>
+        <v>113.49108188540825</v>
+      </c>
+      <c r="K53" s="22">
+        <v>44.000000000000021</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="array" ref="L53:M53">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C53,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D53)</f>
+        <v>113.49108188547574</v>
+      </c>
+      <c r="M53" s="4">
+        <v>44.000000000000021</v>
+      </c>
+      <c r="O53" s="22">
+        <f t="array" ref="O53:P53">[1]!MF_p_pipe_atma(Q_,fw_kf_,C53-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D53)</f>
+        <v>162.63795104102221</v>
+      </c>
+      <c r="P53" s="22">
+        <v>44.000000000000021</v>
+      </c>
+      <c r="Q53" s="22">
+        <f t="array" ref="Q53:R53">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C53,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D53)</f>
+        <v>162.63795104102297</v>
+      </c>
+      <c r="R53" s="22">
+        <v>44.000000000000021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>17</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C54" s="17">
         <f t="shared" si="0"/>
         <v>1280</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>156.39718523743966</v>
-      </c>
-      <c r="F53" s="4">
-        <v>20</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="J53" s="4">
-        <f t="array" ref="J53:K53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>116.59591551006187</v>
-      </c>
-      <c r="K53" s="4">
-        <v>20</v>
-      </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="O53" s="4">
-        <f t="array" ref="O53:P53">[1]!MF_p_pipe_atma(Q_,fw_,M53-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P53" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14">
+        <v>45.600000000000023</v>
+      </c>
+      <c r="E54" s="22">
+        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D54)</f>
+        <v>123.03185091132798</v>
+      </c>
+      <c r="F54" s="22">
+        <v>45.600000000000023</v>
+      </c>
+      <c r="G54" s="22">
+        <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C54,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D54)</f>
+        <v>116.39561434592221</v>
+      </c>
+      <c r="H54" s="22">
+        <v>45.600000000000023</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="array" ref="J54:K54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D54)</f>
+        <v>114.37139419228215</v>
+      </c>
+      <c r="K54" s="22">
+        <v>45.600000000000023</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="array" ref="L54:M54">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C54,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D54)</f>
+        <v>114.37139419234289</v>
+      </c>
+      <c r="M54" s="4">
+        <v>45.600000000000023</v>
+      </c>
+      <c r="O54" s="22">
+        <f t="array" ref="O54:P54">[1]!MF_p_pipe_atma(Q_,fw_kf_,C54-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D54)</f>
+        <v>171.11282392895555</v>
+      </c>
+      <c r="P54" s="22">
+        <v>45.600000000000023</v>
+      </c>
+      <c r="Q54" s="22">
+        <f t="array" ref="Q54:R54">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C54,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D54)</f>
+        <v>171.11282392895632</v>
+      </c>
+      <c r="R54" s="22">
+        <v>45.600000000000023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>18</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C55" s="17">
         <f t="shared" si="0"/>
         <v>1360</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>164.3072076294589</v>
-      </c>
-      <c r="F54" s="4">
-        <v>20</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="J54" s="4">
-        <f t="array" ref="J54:K54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>117.77245535579982</v>
-      </c>
-      <c r="K54" s="4">
-        <v>20</v>
-      </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="O54" s="4">
-        <f t="array" ref="O54:P54">[1]!MF_p_pipe_atma(Q_,fw_,M54-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P54" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-    </row>
-    <row r="55" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14">
+        <v>47.200000000000024</v>
+      </c>
+      <c r="E55" s="22">
+        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D55)</f>
+        <v>129.44537015776072</v>
+      </c>
+      <c r="F55" s="22">
+        <v>47.200000000000024</v>
+      </c>
+      <c r="G55" s="22">
+        <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C55,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D55)</f>
+        <v>122.80299854708029</v>
+      </c>
+      <c r="H55" s="22">
+        <v>47.200000000000024</v>
+      </c>
+      <c r="J55" s="22">
+        <f t="array" ref="J55:K55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D55)</f>
+        <v>115.2502827034893</v>
+      </c>
+      <c r="K55" s="22">
+        <v>47.200000000000024</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="array" ref="L55:M55">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C55,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D55)</f>
+        <v>115.25028270353826</v>
+      </c>
+      <c r="M55" s="4">
+        <v>47.200000000000024</v>
+      </c>
+      <c r="O55" s="22">
+        <f t="array" ref="O55:P55">[1]!MF_p_pipe_atma(Q_,fw_kf_,C55-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D55)</f>
+        <v>179.58348686562388</v>
+      </c>
+      <c r="P55" s="22">
+        <v>47.200000000000024</v>
+      </c>
+      <c r="Q55" s="22">
+        <f t="array" ref="Q55:R55">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C55,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D55)</f>
+        <v>179.58348686562439</v>
+      </c>
+      <c r="R55" s="22">
+        <v>47.200000000000024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
         <v>19</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C56" s="17">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D56" s="17">
         <f t="shared" si="1"/>
+        <v>48.800000000000026</v>
+      </c>
+      <c r="E56" s="22">
+        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D56)</f>
+        <v>135.85731300620014</v>
+      </c>
+      <c r="F56" s="22">
+        <v>48.800000000000026</v>
+      </c>
+      <c r="G56" s="22">
+        <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C56,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D56)</f>
+        <v>129.20923224575577</v>
+      </c>
+      <c r="H56" s="22">
+        <v>48.800000000000026</v>
+      </c>
+      <c r="J56" s="22">
+        <f t="array" ref="J56:K56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D56)</f>
+        <v>116.1278489551844</v>
+      </c>
+      <c r="K56" s="22">
+        <v>48.800000000000026</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="array" ref="L56:M56">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C56,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D56)</f>
+        <v>116.12784895522478</v>
+      </c>
+      <c r="M56" s="4">
+        <v>48.800000000000026</v>
+      </c>
+      <c r="O56" s="22">
+        <f t="array" ref="O56:P56">[1]!MF_p_pipe_atma(Q_,fw_kf_,C56-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D56)</f>
+        <v>188.0499548566672</v>
+      </c>
+      <c r="P56" s="22">
+        <v>48.800000000000026</v>
+      </c>
+      <c r="Q56" s="22">
+        <f t="array" ref="Q56:R56">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C56,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D56)</f>
+        <v>188.04995485666754</v>
+      </c>
+      <c r="R56" s="22">
+        <v>48.800000000000026</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>20</v>
       </c>
-      <c r="E55" s="4">
-        <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>172.21873765575148</v>
-      </c>
-      <c r="F55" s="4">
-        <v>20</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="J55" s="4">
-        <f t="array" ref="J55:K55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>118.96891725011923</v>
-      </c>
-      <c r="K55" s="4">
-        <v>20</v>
-      </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="O55" s="4">
-        <f t="array" ref="O55:P55">[1]!MF_p_pipe_atma(Q_,fw_,M55-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P55" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14">
-        <v>20</v>
-      </c>
-      <c r="C56" s="17">
+      <c r="C57" s="17">
         <f t="shared" si="0"/>
         <v>1520</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>180.13182703698294</v>
-      </c>
-      <c r="F56" s="4">
-        <v>20</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="J56" s="4">
-        <f t="array" ref="J56:K56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>120.1860288623749</v>
-      </c>
-      <c r="K56" s="4">
-        <v>20</v>
-      </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="O56" s="4">
-        <f t="array" ref="O56:P56">[1]!MF_p_pipe_atma(Q_,fw_,M56-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P56" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-    </row>
-    <row r="57" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14">
+        <v>50.400000000000027</v>
+      </c>
+      <c r="E57" s="22">
+        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D57)</f>
+        <v>142.26743416307181</v>
+      </c>
+      <c r="F57" s="22">
+        <v>50.400000000000027</v>
+      </c>
+      <c r="G57" s="22">
+        <f t="array" ref="G57:H57">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C57,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D57)</f>
+        <v>135.61401700050908</v>
+      </c>
+      <c r="H57" s="22">
+        <v>50.400000000000027</v>
+      </c>
+      <c r="J57" s="22">
+        <f t="array" ref="J57:K57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D57)</f>
+        <v>117.00418380367898</v>
+      </c>
+      <c r="K57" s="22">
+        <v>50.400000000000027</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="array" ref="L57:M57">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C57,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D57)</f>
+        <v>117.00418380371272</v>
+      </c>
+      <c r="M57" s="4">
+        <v>50.400000000000027</v>
+      </c>
+      <c r="O57" s="22">
+        <f t="array" ref="O57:P57">[1]!MF_p_pipe_atma(Q_,fw_kf_,C57-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D57)</f>
+        <v>196.51224319566595</v>
+      </c>
+      <c r="P57" s="22">
+        <v>50.400000000000027</v>
+      </c>
+      <c r="Q57" s="22">
+        <f t="array" ref="Q57:R57">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C57,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D57)</f>
+        <v>196.51224319566631</v>
+      </c>
+      <c r="R57" s="22">
+        <v>50.400000000000027</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>21</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C58" s="17">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D58" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E57" s="4">
-        <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>188.04652759494158</v>
-      </c>
-      <c r="F57" s="4">
-        <v>20</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="J57" s="4">
-        <f t="array" ref="J57:K57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>121.4245482030728</v>
-      </c>
-      <c r="K57" s="4">
-        <v>20</v>
-      </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="O57" s="4">
-        <f t="array" ref="O57:P57">[1]!MF_p_pipe_atma(Q_,fw_,M57-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P57" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14">
+        <v>52.000000000000028</v>
+      </c>
+      <c r="E58" s="22">
+        <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D58)</f>
+        <v>148.67552090206723</v>
+      </c>
+      <c r="F58" s="22">
+        <v>52.000000000000028</v>
+      </c>
+      <c r="G58" s="22">
+        <f t="array" ref="G58:H58">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C58,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D58)</f>
+        <v>142.01709575305284</v>
+      </c>
+      <c r="H58" s="22">
+        <v>52.000000000000028</v>
+      </c>
+      <c r="J58" s="22">
+        <f t="array" ref="J58:K58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D58)</f>
+        <v>117.87936834902844</v>
+      </c>
+      <c r="K58" s="22">
+        <v>52.000000000000028</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="array" ref="L58:M58">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C58,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D58)</f>
+        <v>117.87936834905359</v>
+      </c>
+      <c r="M58" s="4">
+        <v>52.000000000000028</v>
+      </c>
+      <c r="O58" s="22">
+        <f t="array" ref="O58:P58">[1]!MF_p_pipe_atma(Q_,fw_kf_,C58-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D58)</f>
+        <v>204.97036748423122</v>
+      </c>
+      <c r="P58" s="22">
+        <v>52.000000000000028</v>
+      </c>
+      <c r="Q58" s="22">
+        <f t="array" ref="Q58:R58">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C58,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D58)</f>
+        <v>204.9703674842315</v>
+      </c>
+      <c r="R58" s="22">
+        <v>52.000000000000028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
         <v>22</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C59" s="17">
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>195.96289125602479</v>
-      </c>
-      <c r="F58" s="4">
-        <v>20</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="J58" s="4">
-        <f t="array" ref="J58:K58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>122.68526261842507</v>
-      </c>
-      <c r="K58" s="4">
-        <v>20</v>
-      </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="O58" s="4">
-        <f t="array" ref="O58:P58">[1]!MF_p_pipe_atma(Q_,fw_,M58-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P58" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-    </row>
-    <row r="59" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14">
+        <v>53.60000000000003</v>
+      </c>
+      <c r="E59" s="22">
+        <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D59)</f>
+        <v>155.08138758786305</v>
+      </c>
+      <c r="F59" s="22">
+        <v>53.60000000000003</v>
+      </c>
+      <c r="G59" s="22">
+        <f t="array" ref="G59:H59">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C59,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D59)</f>
+        <v>148.41824556804522</v>
+      </c>
+      <c r="H59" s="22">
+        <v>53.60000000000003</v>
+      </c>
+      <c r="J59" s="22">
+        <f t="array" ref="J59:K59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D59)</f>
+        <v>118.75347478802409</v>
+      </c>
+      <c r="K59" s="22">
+        <v>53.60000000000003</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="array" ref="L59:M59">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C59,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D59)</f>
+        <v>118.75347478804454</v>
+      </c>
+      <c r="M59" s="4">
+        <v>53.60000000000003</v>
+      </c>
+      <c r="O59" s="22">
+        <f t="array" ref="O59:P59">[1]!MF_p_pipe_atma(Q_,fw_kf_,C59-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D59)</f>
+        <v>213.42434365039793</v>
+      </c>
+      <c r="P59" s="22">
+        <v>53.60000000000003</v>
+      </c>
+      <c r="Q59" s="22">
+        <f t="array" ref="Q59:R59">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C59,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D59)</f>
+        <v>213.42434365039816</v>
+      </c>
+      <c r="R59" s="22">
+        <v>53.60000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>23</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C60" s="17">
         <f t="shared" si="0"/>
         <v>1760</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D60" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>203.88097005474378</v>
-      </c>
-      <c r="F59" s="4">
-        <v>20</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="J59" s="4">
-        <f t="array" ref="J59:K59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>123.96898708528302</v>
-      </c>
-      <c r="K59" s="4">
-        <v>20</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="O59" s="4">
-        <f t="array" ref="O59:P59">[1]!MF_p_pipe_atma(Q_,fw_,M59-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P59" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="14">
+        <v>55.200000000000031</v>
+      </c>
+      <c r="E60" s="22">
+        <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D60)</f>
+        <v>161.48487130219763</v>
+      </c>
+      <c r="F60" s="22">
+        <v>55.200000000000031</v>
+      </c>
+      <c r="G60" s="22">
+        <f t="array" ref="G60:H60">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C60,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D60)</f>
+        <v>154.81727189533103</v>
+      </c>
+      <c r="H60" s="22">
+        <v>55.200000000000031</v>
+      </c>
+      <c r="J60" s="22">
+        <f t="array" ref="J60:K60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D60)</f>
+        <v>119.62656720053643</v>
+      </c>
+      <c r="K60" s="22">
+        <v>55.200000000000031</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="array" ref="L60:M60">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C60,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D60)</f>
+        <v>119.62656720054817</v>
+      </c>
+      <c r="M60" s="4">
+        <v>55.200000000000031</v>
+      </c>
+      <c r="O60" s="22">
+        <f t="array" ref="O60:P60">[1]!MF_p_pipe_atma(Q_,fw_kf_,C60-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D60)</f>
+        <v>221.87418796553592</v>
+      </c>
+      <c r="P60" s="22">
+        <v>55.200000000000031</v>
+      </c>
+      <c r="Q60" s="22">
+        <f t="array" ref="Q60:R60">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C60,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D60)</f>
+        <v>221.87418796553595</v>
+      </c>
+      <c r="R60" s="22">
+        <v>55.200000000000031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>24</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C61" s="17">
         <f t="shared" si="0"/>
         <v>1840</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E60" s="4">
-        <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>211.80081613724883</v>
-      </c>
-      <c r="F60" s="4">
-        <v>20</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="J60" s="4">
-        <f t="array" ref="J60:K60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>125.27656164633549</v>
-      </c>
-      <c r="K60" s="4">
-        <v>20</v>
-      </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="O60" s="4">
-        <f t="array" ref="O60:P60">[1]!MF_p_pipe_atma(Q_,fw_,M60-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P60" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-    </row>
-    <row r="61" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14">
+        <v>56.800000000000033</v>
+      </c>
+      <c r="E61" s="22">
+        <f t="array" ref="E61:F61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D61)</f>
+        <v>167.8858283167948</v>
+      </c>
+      <c r="F61" s="22">
+        <v>56.800000000000033</v>
+      </c>
+      <c r="G61" s="22">
+        <f t="array" ref="G61:H61">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C61,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D61)</f>
+        <v>161.21400398710725</v>
+      </c>
+      <c r="H61" s="22">
+        <v>56.800000000000033</v>
+      </c>
+      <c r="J61" s="22">
+        <f t="array" ref="J61:K61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D61)</f>
+        <v>120.49870227314587</v>
+      </c>
+      <c r="K61" s="22">
+        <v>56.800000000000033</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="array" ref="L61:M61">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C61,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D61)</f>
+        <v>120.49870227315228</v>
+      </c>
+      <c r="M61" s="4">
+        <v>56.800000000000033</v>
+      </c>
+      <c r="O61" s="22">
+        <f t="array" ref="O61:P61">[1]!MF_p_pipe_atma(Q_,fw_kf_,C61-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D61)</f>
+        <v>230.31991705996137</v>
+      </c>
+      <c r="P61" s="22">
+        <v>56.800000000000033</v>
+      </c>
+      <c r="Q61" s="22">
+        <f t="array" ref="Q61:R61">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C61,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D61)</f>
+        <v>230.3199170599614</v>
+      </c>
+      <c r="R61" s="22">
+        <v>56.800000000000033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
         <v>25</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C62" s="17">
         <f t="shared" si="0"/>
         <v>1920</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D62" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E61" s="4">
-        <f t="array" ref="E61:F61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>219.72248176487449</v>
-      </c>
-      <c r="F61" s="4">
-        <v>20</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="J61" s="4">
-        <f t="array" ref="J61:K61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>126.60884780324706</v>
-      </c>
-      <c r="K61" s="4">
-        <v>20</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="O61" s="4">
-        <f t="array" ref="O61:P61">[1]!MF_p_pipe_atma(Q_,fw_,M61-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>30</v>
-      </c>
-      <c r="P61" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14">
+        <v>58.400000000000034</v>
+      </c>
+      <c r="E62" s="22">
+        <f t="array" ref="E62:F62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D62)</f>
+        <v>174.28413122361422</v>
+      </c>
+      <c r="F62" s="22">
+        <v>58.400000000000034</v>
+      </c>
+      <c r="G62" s="22">
+        <f t="array" ref="G62:H62">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C62,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D62)</f>
+        <v>167.60829120235323</v>
+      </c>
+      <c r="H62" s="22">
+        <v>58.400000000000034</v>
+      </c>
+      <c r="J62" s="22">
+        <f t="array" ref="J62:K62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D62)</f>
+        <v>121.36992996407533</v>
+      </c>
+      <c r="K62" s="22">
+        <v>58.400000000000034</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="array" ref="L62:M62">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C62,$L$63,1,PVT_str_gas_,theta_,id_,,$D$63,D62)</f>
+        <v>121.36992996407831</v>
+      </c>
+      <c r="M62" s="4">
+        <v>58.400000000000034</v>
+      </c>
+      <c r="O62" s="22">
+        <f t="array" ref="O62:P62">[1]!MF_p_pipe_atma(Q_,fw_kf_,C62-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D62)</f>
+        <v>238.76154793740841</v>
+      </c>
+      <c r="P62" s="22">
+        <v>58.400000000000034</v>
+      </c>
+      <c r="Q62" s="22">
+        <f t="array" ref="Q62:R62">[1]!MF_p_pipe_atma(Q_,fw_kf_,$C$63-C62,$Q$63,1,PVT_str_2_,theta_,id_,,$D$63,D62)</f>
+        <v>238.76154793740835</v>
+      </c>
+      <c r="R62" s="22">
+        <v>58.400000000000034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>26</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C63" s="17">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="17">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E62" s="4">
-        <f t="array" ref="E62:F62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$E$37,0,PVT_str_1_,theta_,id_,hydr_corr_,t0_)</f>
-        <v>227.64601931770676</v>
-      </c>
-      <c r="F62" s="4">
-        <v>20</v>
-      </c>
-      <c r="G62" s="15">
+        <v>60.000000000000036</v>
+      </c>
+      <c r="E63" s="22">
+        <f t="array" ref="E63:F63">[1]!MF_p_pipe_atma(Q_,fw_,C63-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D63)</f>
+        <v>180.67966658101102</v>
+      </c>
+      <c r="F63" s="22">
+        <v>60.000000000000036</v>
+      </c>
+      <c r="G63" s="16">
         <f>p1_</f>
-        <v>40</v>
-      </c>
-      <c r="H62" s="15">
+        <v>174</v>
+      </c>
+      <c r="H63" s="16">
         <f>t1_</f>
-        <v>20</v>
-      </c>
-      <c r="J62" s="4">
-        <f t="array" ref="J62:K62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$J$37,0,PVT_str_gas_,theta_,id_,,t0_)</f>
-        <v>127.96672366374233</v>
-      </c>
-      <c r="K62" s="4">
-        <v>20</v>
-      </c>
-      <c r="L62" s="15">
-        <f>p1_</f>
-        <v>40</v>
-      </c>
-      <c r="M62" s="15">
+        <v>60</v>
+      </c>
+      <c r="J63" s="22">
+        <f t="array" ref="J63:K63">[1]!MF_p_pipe_atma(Q_,fw_,C63-l0_,$J$38,0,PVT_str_gas_,theta_,id_,,t0_,D63)</f>
+        <v>122.24029411328245</v>
+      </c>
+      <c r="K63" s="22">
+        <v>60.000000000000036</v>
+      </c>
+      <c r="L63" s="15">
+        <f>J63</f>
+        <v>122.24029411328245</v>
+      </c>
+      <c r="M63" s="15">
         <f>t1_</f>
-        <v>20</v>
-      </c>
-      <c r="O62" s="4">
-        <f t="array" ref="O62:P62">[1]!MF_p_pipe_atma(Q_,fw_,M62-l0_,$E$37,0,PVT_str_1_,theta_,id_,,t0_)</f>
-        <v>31.973154221918993</v>
-      </c>
-      <c r="P62" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q62" s="15">
-        <f>p1_</f>
-        <v>40</v>
-      </c>
-      <c r="R62" s="15">
+        <v>60</v>
+      </c>
+      <c r="O63" s="22">
+        <f t="array" ref="O63:P63">[1]!MF_p_pipe_atma(Q_,fw_kf_,C63-$C$38,$E$38,0,PVT_str_2_,theta_,id_,,t0_,D63)</f>
+        <v>247.19909798849659</v>
+      </c>
+      <c r="P63" s="22">
+        <v>60.000000000000036</v>
+      </c>
+      <c r="Q63" s="23">
+        <f>O63</f>
+        <v>247.19909798849659</v>
+      </c>
+      <c r="R63" s="23">
         <f>t1_</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excercises/excercises 2/ex020.pipe.xlsx
+++ b/excercises/excercises 2/ex020.pipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0688DEA7-CA77-4A8F-8157-527472EA6CAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24450750-E7F5-4C7E-A2EC-AF3E8ED64EC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF 1 " sheetId="118" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -486,7 +486,19 @@
     </r>
   </si>
   <si>
-    <t>Настройка корреляции</t>
+    <t>Настройка расчета пепепада давления в трубе</t>
+  </si>
+  <si>
+    <t>calibr grav</t>
+  </si>
+  <si>
+    <t>calibr fric</t>
+  </si>
+  <si>
+    <t>Rp</t>
+  </si>
+  <si>
+    <t>Fw</t>
   </si>
 </sst>
 </file>
@@ -961,79 +973,79 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.927046578646419</c:v>
+                  <c:v>39.117268653967599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.098108707683544</c:v>
+                  <c:v>43.423271629634598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.508068388955998</c:v>
+                  <c:v>47.907826909439251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.153383865802226</c:v>
+                  <c:v>52.560051331935099</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.037812484457334</c:v>
+                  <c:v>57.368627927918276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.107197712831677</c:v>
+                  <c:v>62.322049889659738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.430540886292619</c:v>
+                  <c:v>67.408835970056842</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.99628428423695</c:v>
+                  <c:v>72.669423801542663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78.790223959524226</c:v>
+                  <c:v>78.19927836227312</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.795771631850357</c:v>
+                  <c:v>83.996436113044595</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90.995971830529811</c:v>
+                  <c:v>90.05646731718133</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.368100044487278</c:v>
+                  <c:v>96.373128831124362</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103.78493602136083</c:v>
+                  <c:v>102.78786874558877</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.20127075218839</c:v>
+                  <c:v>109.20502801446338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116.61704005706324</c:v>
+                  <c:v>115.62171626747354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>123.03185091132798</c:v>
+                  <c:v>122.03752698501756</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>129.44537015776072</c:v>
+                  <c:v>128.45211604090676</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135.85731300620014</c:v>
+                  <c:v>134.86518962699688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>142.26743416307181</c:v>
+                  <c:v>141.27649495888309</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148.67552090206723</c:v>
+                  <c:v>147.68581302938338</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155.08138758786305</c:v>
+                  <c:v>154.09295289153488</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>161.48487130219763</c:v>
+                  <c:v>160.49774709966107</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>167.8858283167948</c:v>
+                  <c:v>166.90004803847003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>174.28413122361422</c:v>
+                  <c:v>173.29972494029622</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.67966658101102</c:v>
+                  <c:v>179.6966614416101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,79 +1177,79 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>31.424523299597741</c:v>
+                  <c:v>31.729558043089941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.098155002939848</c:v>
+                  <c:v>35.672980646767584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.008575620841548</c:v>
+                  <c:v>39.800394013814682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.174779686018091</c:v>
+                  <c:v>44.128325123306347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.558997976964399</c:v>
+                  <c:v>48.621324324620936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.189010095569586</c:v>
+                  <c:v>53.286667716265242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.035207809051428</c:v>
+                  <c:v>58.107350120507959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.08666271237616</c:v>
+                  <c:v>63.056691479731711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.383061452996671</c:v>
+                  <c:v>68.154797207997021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.916815074042134</c:v>
+                  <c:v>73.420803405672785</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.681973460255449</c:v>
+                  <c:v>78.963313049622656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84.656166813572071</c:v>
+                  <c:v>84.767093329385659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.821155188135535</c:v>
+                  <c:v>90.825032367490707</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.170379383719649</c:v>
+                  <c:v>97.147159459481017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103.57885363446685</c:v>
+                  <c:v>103.55755043623742</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109.98742876038747</c:v>
+                  <c:v>109.96804754529701</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.39561434592221</c:v>
+                  <c:v>116.37815953438593</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>122.80299854708029</c:v>
+                  <c:v>122.78747388396756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>129.20923224575577</c:v>
+                  <c:v>129.19564092180482</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>135.61401700050908</c:v>
+                  <c:v>135.60236174508174</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>142.01709575305284</c:v>
+                  <c:v>142.0073789058938</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>148.41824556804522</c:v>
+                  <c:v>148.4104691354388</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>154.81727189533103</c:v>
+                  <c:v>154.81143759451524</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.21400398710725</c:v>
+                  <c:v>161.21011328175143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>167.60829120235323</c:v>
+                  <c:v>167.60634533116428</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="General">
                   <c:v>174</c:v>
@@ -3006,6 +3018,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
+      <definedName name="MF_calibr_pipe_m3day"/>
       <definedName name="MF_p_pipe_atma"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
@@ -3317,10 +3330,10 @@
   <sheetPr codeName="Worksheet_MF1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3592,7 @@
         <v>48</v>
       </c>
       <c r="G22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
@@ -3828,7 +3841,7 @@
       </c>
       <c r="G38" s="22">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C38,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D38)</f>
-        <v>31.424523299597741</v>
+        <v>31.729558043089941</v>
       </c>
       <c r="H38" s="22">
         <v>20</v>
@@ -3878,14 +3891,14 @@
       </c>
       <c r="E39" s="22">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D39)</f>
-        <v>38.927046578646419</v>
+        <v>39.117268653967599</v>
       </c>
       <c r="F39" s="22">
         <v>21.6</v>
       </c>
       <c r="G39" s="22">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C39,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D39)</f>
-        <v>35.098155002939848</v>
+        <v>35.672980646767584</v>
       </c>
       <c r="H39" s="22">
         <v>21.6</v>
@@ -3933,14 +3946,14 @@
       </c>
       <c r="E40" s="22">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D40)</f>
-        <v>43.098108707683544</v>
+        <v>43.423271629634598</v>
       </c>
       <c r="F40" s="22">
         <v>23.200000000000003</v>
       </c>
       <c r="G40" s="22">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C40,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D40)</f>
-        <v>39.008575620841548</v>
+        <v>39.800394013814682</v>
       </c>
       <c r="H40" s="22">
         <v>23.200000000000003</v>
@@ -3988,14 +4001,14 @@
       </c>
       <c r="E41" s="22">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D41)</f>
-        <v>47.508068388955998</v>
+        <v>47.907826909439251</v>
       </c>
       <c r="F41" s="22">
         <v>24.800000000000004</v>
       </c>
       <c r="G41" s="22">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C41,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D41)</f>
-        <v>43.174779686018091</v>
+        <v>44.128325123306347</v>
       </c>
       <c r="H41" s="22">
         <v>24.800000000000004</v>
@@ -4043,14 +4056,14 @@
       </c>
       <c r="E42" s="22">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D42)</f>
-        <v>52.153383865802226</v>
+        <v>52.560051331935099</v>
       </c>
       <c r="F42" s="22">
         <v>26.400000000000006</v>
       </c>
       <c r="G42" s="22">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C42,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D42)</f>
-        <v>47.558997976964399</v>
+        <v>48.621324324620936</v>
       </c>
       <c r="H42" s="22">
         <v>26.400000000000006</v>
@@ -4098,14 +4111,14 @@
       </c>
       <c r="E43" s="22">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D43)</f>
-        <v>57.037812484457334</v>
+        <v>57.368627927918276</v>
       </c>
       <c r="F43" s="22">
         <v>28.000000000000007</v>
       </c>
       <c r="G43" s="22">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C43,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D43)</f>
-        <v>52.189010095569586</v>
+        <v>53.286667716265242</v>
       </c>
       <c r="H43" s="22">
         <v>28.000000000000007</v>
@@ -4153,14 +4166,14 @@
       </c>
       <c r="E44" s="22">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D44)</f>
-        <v>62.107197712831677</v>
+        <v>62.322049889659738</v>
       </c>
       <c r="F44" s="22">
         <v>29.600000000000009</v>
       </c>
       <c r="G44" s="22">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C44,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D44)</f>
-        <v>57.035207809051428</v>
+        <v>58.107350120507959</v>
       </c>
       <c r="H44" s="22">
         <v>29.600000000000009</v>
@@ -4208,14 +4221,14 @@
       </c>
       <c r="E45" s="22">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D45)</f>
-        <v>67.430540886292619</v>
+        <v>67.408835970056842</v>
       </c>
       <c r="F45" s="22">
         <v>31.20000000000001</v>
       </c>
       <c r="G45" s="22">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C45,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D45)</f>
-        <v>62.08666271237616</v>
+        <v>63.056691479731711</v>
       </c>
       <c r="H45" s="22">
         <v>31.20000000000001</v>
@@ -4263,14 +4276,14 @@
       </c>
       <c r="E46" s="22">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D46)</f>
-        <v>72.99628428423695</v>
+        <v>72.669423801542663</v>
       </c>
       <c r="F46" s="22">
         <v>32.800000000000011</v>
       </c>
       <c r="G46" s="22">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C46,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D46)</f>
-        <v>67.383061452996671</v>
+        <v>68.154797207997021</v>
       </c>
       <c r="H46" s="22">
         <v>32.800000000000011</v>
@@ -4318,14 +4331,14 @@
       </c>
       <c r="E47" s="22">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D47)</f>
-        <v>78.790223959524226</v>
+        <v>78.19927836227312</v>
       </c>
       <c r="F47" s="22">
         <v>34.400000000000013</v>
       </c>
       <c r="G47" s="22">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C47,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D47)</f>
-        <v>72.916815074042134</v>
+        <v>73.420803405672785</v>
       </c>
       <c r="H47" s="22">
         <v>34.400000000000013</v>
@@ -4373,14 +4386,14 @@
       </c>
       <c r="E48" s="22">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D48)</f>
-        <v>84.795771631850357</v>
+        <v>83.996436113044595</v>
       </c>
       <c r="F48" s="22">
         <v>36.000000000000014</v>
       </c>
       <c r="G48" s="22">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C48,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D48)</f>
-        <v>78.681973460255449</v>
+        <v>78.963313049622656</v>
       </c>
       <c r="H48" s="22">
         <v>36.000000000000014</v>
@@ -4428,14 +4441,14 @@
       </c>
       <c r="E49" s="22">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D49)</f>
-        <v>90.995971830529811</v>
+        <v>90.05646731718133</v>
       </c>
       <c r="F49" s="22">
         <v>37.600000000000016</v>
       </c>
       <c r="G49" s="22">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C49,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D49)</f>
-        <v>84.656166813572071</v>
+        <v>84.767093329385659</v>
       </c>
       <c r="H49" s="22">
         <v>37.600000000000016</v>
@@ -4483,14 +4496,14 @@
       </c>
       <c r="E50" s="22">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D50)</f>
-        <v>97.368100044487278</v>
+        <v>96.373128831124362</v>
       </c>
       <c r="F50" s="22">
         <v>39.200000000000017</v>
       </c>
       <c r="G50" s="22">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C50,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D50)</f>
-        <v>90.821155188135535</v>
+        <v>90.825032367490707</v>
       </c>
       <c r="H50" s="22">
         <v>39.200000000000017</v>
@@ -4538,14 +4551,14 @@
       </c>
       <c r="E51" s="22">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D51)</f>
-        <v>103.78493602136083</v>
+        <v>102.78786874558877</v>
       </c>
       <c r="F51" s="22">
         <v>40.800000000000018</v>
       </c>
       <c r="G51" s="22">
         <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C51,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D51)</f>
-        <v>97.170379383719649</v>
+        <v>97.147159459481017</v>
       </c>
       <c r="H51" s="22">
         <v>40.800000000000018</v>
@@ -4593,14 +4606,14 @@
       </c>
       <c r="E52" s="22">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D52)</f>
-        <v>110.20127075218839</v>
+        <v>109.20502801446338</v>
       </c>
       <c r="F52" s="22">
         <v>42.40000000000002</v>
       </c>
       <c r="G52" s="22">
         <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C52,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D52)</f>
-        <v>103.57885363446685</v>
+        <v>103.55755043623742</v>
       </c>
       <c r="H52" s="22">
         <v>42.40000000000002</v>
@@ -4648,14 +4661,14 @@
       </c>
       <c r="E53" s="22">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D53)</f>
-        <v>116.61704005706324</v>
+        <v>115.62171626747354</v>
       </c>
       <c r="F53" s="22">
         <v>44.000000000000021</v>
       </c>
       <c r="G53" s="22">
         <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C53,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D53)</f>
-        <v>109.98742876038747</v>
+        <v>109.96804754529701</v>
       </c>
       <c r="H53" s="22">
         <v>44.000000000000021</v>
@@ -4703,14 +4716,14 @@
       </c>
       <c r="E54" s="22">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D54)</f>
-        <v>123.03185091132798</v>
+        <v>122.03752698501756</v>
       </c>
       <c r="F54" s="22">
         <v>45.600000000000023</v>
       </c>
       <c r="G54" s="22">
         <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C54,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D54)</f>
-        <v>116.39561434592221</v>
+        <v>116.37815953438593</v>
       </c>
       <c r="H54" s="22">
         <v>45.600000000000023</v>
@@ -4758,14 +4771,14 @@
       </c>
       <c r="E55" s="22">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D55)</f>
-        <v>129.44537015776072</v>
+        <v>128.45211604090676</v>
       </c>
       <c r="F55" s="22">
         <v>47.200000000000024</v>
       </c>
       <c r="G55" s="22">
         <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C55,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D55)</f>
-        <v>122.80299854708029</v>
+        <v>122.78747388396756</v>
       </c>
       <c r="H55" s="22">
         <v>47.200000000000024</v>
@@ -4813,14 +4826,14 @@
       </c>
       <c r="E56" s="22">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D56)</f>
-        <v>135.85731300620014</v>
+        <v>134.86518962699688</v>
       </c>
       <c r="F56" s="22">
         <v>48.800000000000026</v>
       </c>
       <c r="G56" s="22">
         <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C56,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D56)</f>
-        <v>129.20923224575577</v>
+        <v>129.19564092180482</v>
       </c>
       <c r="H56" s="22">
         <v>48.800000000000026</v>
@@ -4868,14 +4881,14 @@
       </c>
       <c r="E57" s="22">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D57)</f>
-        <v>142.26743416307181</v>
+        <v>141.27649495888309</v>
       </c>
       <c r="F57" s="22">
         <v>50.400000000000027</v>
       </c>
       <c r="G57" s="22">
         <f t="array" ref="G57:H57">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C57,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D57)</f>
-        <v>135.61401700050908</v>
+        <v>135.60236174508174</v>
       </c>
       <c r="H57" s="22">
         <v>50.400000000000027</v>
@@ -4923,14 +4936,14 @@
       </c>
       <c r="E58" s="22">
         <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D58)</f>
-        <v>148.67552090206723</v>
+        <v>147.68581302938338</v>
       </c>
       <c r="F58" s="22">
         <v>52.000000000000028</v>
       </c>
       <c r="G58" s="22">
         <f t="array" ref="G58:H58">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C58,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D58)</f>
-        <v>142.01709575305284</v>
+        <v>142.0073789058938</v>
       </c>
       <c r="H58" s="22">
         <v>52.000000000000028</v>
@@ -4978,14 +4991,14 @@
       </c>
       <c r="E59" s="22">
         <f t="array" ref="E59:F59">[1]!MF_p_pipe_atma(Q_,fw_,C59-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D59)</f>
-        <v>155.08138758786305</v>
+        <v>154.09295289153488</v>
       </c>
       <c r="F59" s="22">
         <v>53.60000000000003</v>
       </c>
       <c r="G59" s="22">
         <f t="array" ref="G59:H59">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C59,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D59)</f>
-        <v>148.41824556804522</v>
+        <v>148.4104691354388</v>
       </c>
       <c r="H59" s="22">
         <v>53.60000000000003</v>
@@ -5033,14 +5046,14 @@
       </c>
       <c r="E60" s="22">
         <f t="array" ref="E60:F60">[1]!MF_p_pipe_atma(Q_,fw_,C60-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D60)</f>
-        <v>161.48487130219763</v>
+        <v>160.49774709966107</v>
       </c>
       <c r="F60" s="22">
         <v>55.200000000000031</v>
       </c>
       <c r="G60" s="22">
         <f t="array" ref="G60:H60">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C60,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D60)</f>
-        <v>154.81727189533103</v>
+        <v>154.81143759451524</v>
       </c>
       <c r="H60" s="22">
         <v>55.200000000000031</v>
@@ -5088,14 +5101,14 @@
       </c>
       <c r="E61" s="22">
         <f t="array" ref="E61:F61">[1]!MF_p_pipe_atma(Q_,fw_,C61-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D61)</f>
-        <v>167.8858283167948</v>
+        <v>166.90004803847003</v>
       </c>
       <c r="F61" s="22">
         <v>56.800000000000033</v>
       </c>
       <c r="G61" s="22">
         <f t="array" ref="G61:H61">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C61,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D61)</f>
-        <v>161.21400398710725</v>
+        <v>161.21011328175143</v>
       </c>
       <c r="H61" s="22">
         <v>56.800000000000033</v>
@@ -5143,14 +5156,14 @@
       </c>
       <c r="E62" s="22">
         <f t="array" ref="E62:F62">[1]!MF_p_pipe_atma(Q_,fw_,C62-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D62)</f>
-        <v>174.28413122361422</v>
+        <v>173.29972494029622</v>
       </c>
       <c r="F62" s="22">
         <v>58.400000000000034</v>
       </c>
       <c r="G62" s="22">
         <f t="array" ref="G62:H62">[1]!MF_p_pipe_atma(Q_,fw_,$C$63-C62,$G$63,1,PVT_str_1_,theta_,id_,hydr_corr_,$D$63,D62)</f>
-        <v>167.60829120235323</v>
+        <v>167.60634533116428</v>
       </c>
       <c r="H62" s="22">
         <v>58.400000000000034</v>
@@ -5198,7 +5211,7 @@
       </c>
       <c r="E63" s="22">
         <f t="array" ref="E63:F63">[1]!MF_p_pipe_atma(Q_,fw_,C63-l0_,$E$38,0,PVT_str_1_,theta_,id_,hydr_corr_,$D$38,D63)</f>
-        <v>180.67966658101102</v>
+        <v>179.6966614416101</v>
       </c>
       <c r="F63" s="22">
         <v>60.000000000000036</v>
@@ -5243,9 +5256,81 @@
       </c>
     </row>
     <row r="64" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71">
+        <f t="array" ref="C71:F71">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,0)</f>
+        <v>0.964935302734375</v>
+      </c>
+      <c r="D71">
+        <v>5.2556617769994318E-4</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71" t="str">
+        <v>solve_equation_bisection: решение найденою итераций 15, точность 0,001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="array" ref="C72:F72">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,1)</f>
+        <v>no solution</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="str">
+        <v>solve_equation_bisection: Значения на концах отрезка должны иметь разный знак</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73">
+        <f t="array" ref="C73:F73">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,2)</f>
+        <v>49.503173828125</v>
+      </c>
+      <c r="D73">
+        <v>4.2428581149067668E-4</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73" t="str">
+        <v>solve_equation_bisection: решение найденою итераций 15, точность 0,001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="array" ref="C74:F74">[1]!MF_calibr_pipe_m3day(Q_,fw_,L_,G63,E38,PVT_str_1_,,id_,0,+t0_,t1_,,,,3)</f>
+        <v>no solution</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="str">
+        <v>solve_equation_bisection: Значения на концах отрезка должны иметь разный знак</v>
       </c>
     </row>
   </sheetData>

--- a/excercises/excercises 2/ex020.pipe.xlsx
+++ b/excercises/excercises 2/ex020.pipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24450750-E7F5-4C7E-A2EC-AF3E8ED64EC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2EA6DA-723C-4C42-BBC4-30ABF2967606}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3332,8 +3332,8 @@
   </sheetPr>
   <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
